--- a/WebContent/hsw/3조 5차 요구사항정의서_hsw.xlsx
+++ b/WebContent/hsw/3조 5차 요구사항정의서_hsw.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,8 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="sw수정" sheetId="4" r:id="rId4"/>
     <sheet name="담당자 및 진행도" sheetId="5" r:id="rId5"/>
+    <sheet name="담당자 및 진행도 (2)" sheetId="6" r:id="rId6"/>
+    <sheet name="간략" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="415">
   <si>
     <t>구분</t>
   </si>
@@ -1321,6 +1323,294 @@
     <t>4월17일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>마감일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>앱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김형준</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4월8일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4월24일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 가입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디 중복검사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4월10일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>약관 동의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원서비스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조립 컴퓨터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조립 컴퓨터 카테고리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조립 컴퓨터 목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조립 컴퓨터 상세보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조립 컴퓨터 부품추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컴퓨터 부품</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컴퓨터 부품 카테고리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컴퓨터 부품 목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컴퓨터 부품 상세</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컴퓨터 견적 문의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>견적문의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한송우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4월16일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>견적목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4월22일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최민기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객센터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4월15일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4월27일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문의사항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4월17일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마일리지 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문/배송관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문내역조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 상세보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS 목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS 상세</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4월5일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4월23일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김형준</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원서비스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전현규</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전현규</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컴퓨터 부품</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한송우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최민기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객센터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김형준,최민기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최민기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김형준</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1406,7 +1696,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="50">
+  <borders count="53">
     <border>
       <left/>
       <right/>
@@ -2037,13 +2327,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="168">
+  <cellXfs count="188">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2404,109 +2731,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2546,6 +2792,147 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2589,7 +2976,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$4" spid="_x0000_s1274"/>
+                  <a14:cameraTool cellRange="$O$4" spid="_x0000_s1312"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2648,7 +3035,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$7" spid="_x0000_s1275"/>
+                  <a14:cameraTool cellRange="$O$7" spid="_x0000_s1313"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2707,7 +3094,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$N$10" spid="_x0000_s1276"/>
+                  <a14:cameraTool cellRange="$N$10" spid="_x0000_s1314"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2766,7 +3153,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$10" spid="_x0000_s1277"/>
+                  <a14:cameraTool cellRange="$O$10" spid="_x0000_s1315"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2825,7 +3212,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$15" spid="_x0000_s1278"/>
+                  <a14:cameraTool cellRange="$O$15" spid="_x0000_s1316"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2884,7 +3271,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$19" spid="_x0000_s1279"/>
+                  <a14:cameraTool cellRange="$O$19" spid="_x0000_s1317"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2943,7 +3330,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$21" spid="_x0000_s1280"/>
+                  <a14:cameraTool cellRange="$O$21" spid="_x0000_s1318"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3002,7 +3389,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$23" spid="_x0000_s1281"/>
+                  <a14:cameraTool cellRange="$O$23" spid="_x0000_s1319"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3061,7 +3448,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$26" spid="_x0000_s1282"/>
+                  <a14:cameraTool cellRange="$O$26" spid="_x0000_s1320"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3120,7 +3507,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$N$30" spid="_x0000_s1283"/>
+                  <a14:cameraTool cellRange="$N$30" spid="_x0000_s1321"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3179,7 +3566,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$N$37" spid="_x0000_s1284"/>
+                  <a14:cameraTool cellRange="$N$37" spid="_x0000_s1322"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3238,7 +3625,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$30" spid="_x0000_s1285"/>
+                  <a14:cameraTool cellRange="$O$30" spid="_x0000_s1323"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3297,7 +3684,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$34" spid="_x0000_s1286"/>
+                  <a14:cameraTool cellRange="$O$34" spid="_x0000_s1324"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3356,7 +3743,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$37" spid="_x0000_s1287"/>
+                  <a14:cameraTool cellRange="$O$37" spid="_x0000_s1325"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3415,7 +3802,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$39" spid="_x0000_s1288"/>
+                  <a14:cameraTool cellRange="$O$39" spid="_x0000_s1326"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3474,7 +3861,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$42" spid="_x0000_s1289"/>
+                  <a14:cameraTool cellRange="$O$42" spid="_x0000_s1327"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3533,7 +3920,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$44" spid="_x0000_s1290"/>
+                  <a14:cameraTool cellRange="$O$44" spid="_x0000_s1328"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3592,7 +3979,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$46" spid="_x0000_s1291"/>
+                  <a14:cameraTool cellRange="$O$46" spid="_x0000_s1329"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3651,7 +4038,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$N$4" spid="_x0000_s1292"/>
+                  <a14:cameraTool cellRange="$N$4" spid="_x0000_s1330"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -4037,10 +4424,10 @@
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B3" s="126" t="s">
+      <c r="B3" s="150" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="123" t="s">
+      <c r="C3" s="141" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="15" t="s">
@@ -4057,8 +4444,8 @@
       <c r="K3" s="11"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B4" s="127"/>
-      <c r="C4" s="124"/>
+      <c r="B4" s="151"/>
+      <c r="C4" s="142"/>
       <c r="D4" s="13" t="s">
         <v>13</v>
       </c>
@@ -4073,8 +4460,8 @@
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="127"/>
-      <c r="C5" s="125"/>
+      <c r="B5" s="151"/>
+      <c r="C5" s="145"/>
       <c r="D5" s="16" t="s">
         <v>15</v>
       </c>
@@ -4089,8 +4476,8 @@
       <c r="K5" s="4"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B6" s="127"/>
-      <c r="C6" s="123" t="s">
+      <c r="B6" s="151"/>
+      <c r="C6" s="141" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="12" t="s">
@@ -4107,8 +4494,8 @@
       <c r="K6" s="9"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B7" s="127"/>
-      <c r="C7" s="124"/>
+      <c r="B7" s="151"/>
+      <c r="C7" s="142"/>
       <c r="D7" s="13" t="s">
         <v>20</v>
       </c>
@@ -4123,8 +4510,8 @@
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="128"/>
-      <c r="C8" s="125"/>
+      <c r="B8" s="152"/>
+      <c r="C8" s="145"/>
       <c r="D8" s="16" t="s">
         <v>17</v>
       </c>
@@ -4141,10 +4528,10 @@
       <c r="K8" s="4"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B9" s="120" t="s">
+      <c r="B9" s="149" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="123" t="s">
+      <c r="C9" s="141" t="s">
         <v>24</v>
       </c>
       <c r="D9" s="15" t="s">
@@ -4161,8 +4548,8 @@
       <c r="K9" s="11"/>
     </row>
     <row r="10" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="121"/>
-      <c r="C10" s="125"/>
+      <c r="B10" s="143"/>
+      <c r="C10" s="145"/>
       <c r="D10" s="17" t="s">
         <v>25</v>
       </c>
@@ -4177,11 +4564,11 @@
       <c r="K10" s="4"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B11" s="121"/>
-      <c r="C11" s="123" t="s">
+      <c r="B11" s="143"/>
+      <c r="C11" s="141" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="129" t="s">
+      <c r="D11" s="146" t="s">
         <v>30</v>
       </c>
       <c r="E11" s="10" t="s">
@@ -4195,9 +4582,9 @@
       <c r="K11" s="11"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B12" s="121"/>
-      <c r="C12" s="124"/>
-      <c r="D12" s="130"/>
+      <c r="B12" s="143"/>
+      <c r="C12" s="142"/>
+      <c r="D12" s="148"/>
       <c r="E12" s="1" t="s">
         <v>34</v>
       </c>
@@ -4209,8 +4596,8 @@
       <c r="K12" s="2"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B13" s="121"/>
-      <c r="C13" s="124"/>
+      <c r="B13" s="143"/>
+      <c r="C13" s="142"/>
       <c r="D13" s="13" t="s">
         <v>31</v>
       </c>
@@ -4225,8 +4612,8 @@
       <c r="K13" s="2"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B14" s="121"/>
-      <c r="C14" s="124"/>
+      <c r="B14" s="143"/>
+      <c r="C14" s="142"/>
       <c r="D14" s="13" t="s">
         <v>32</v>
       </c>
@@ -4241,8 +4628,8 @@
       <c r="K14" s="2"/>
     </row>
     <row r="15" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="121"/>
-      <c r="C15" s="125"/>
+      <c r="B15" s="143"/>
+      <c r="C15" s="145"/>
       <c r="D15" s="17" t="s">
         <v>35</v>
       </c>
@@ -4259,8 +4646,8 @@
       <c r="K15" s="4"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B16" s="121"/>
-      <c r="C16" s="123" t="s">
+      <c r="B16" s="143"/>
+      <c r="C16" s="141" t="s">
         <v>38</v>
       </c>
       <c r="D16" s="15" t="s">
@@ -4277,8 +4664,8 @@
       <c r="K16" s="11"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B17" s="121"/>
-      <c r="C17" s="124"/>
+      <c r="B17" s="143"/>
+      <c r="C17" s="142"/>
       <c r="D17" s="13" t="s">
         <v>31</v>
       </c>
@@ -4293,8 +4680,8 @@
       <c r="K17" s="2"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B18" s="121"/>
-      <c r="C18" s="124"/>
+      <c r="B18" s="143"/>
+      <c r="C18" s="142"/>
       <c r="D18" s="13" t="s">
         <v>42</v>
       </c>
@@ -4309,8 +4696,8 @@
       <c r="K18" s="2"/>
     </row>
     <row r="19" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="122"/>
-      <c r="C19" s="125"/>
+      <c r="B19" s="144"/>
+      <c r="C19" s="145"/>
       <c r="D19" s="17" t="s">
         <v>35</v>
       </c>
@@ -4325,10 +4712,10 @@
       <c r="K19" s="4"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B20" s="120" t="s">
+      <c r="B20" s="149" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="123" t="s">
+      <c r="C20" s="141" t="s">
         <v>46</v>
       </c>
       <c r="D20" s="15" t="s">
@@ -4345,8 +4732,8 @@
       <c r="K20" s="11"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B21" s="121"/>
-      <c r="C21" s="124"/>
+      <c r="B21" s="143"/>
+      <c r="C21" s="142"/>
       <c r="D21" s="13" t="s">
         <v>48</v>
       </c>
@@ -4361,8 +4748,8 @@
       <c r="K21" s="2"/>
     </row>
     <row r="22" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="121"/>
-      <c r="C22" s="125"/>
+      <c r="B22" s="143"/>
+      <c r="C22" s="145"/>
       <c r="D22" s="16" t="s">
         <v>52</v>
       </c>
@@ -4377,7 +4764,7 @@
       <c r="K22" s="4"/>
     </row>
     <row r="23" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="121"/>
+      <c r="B23" s="143"/>
       <c r="C23" s="21" t="s">
         <v>54</v>
       </c>
@@ -4395,10 +4782,10 @@
       <c r="K23" s="20"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B24" s="120" t="s">
+      <c r="B24" s="149" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="123" t="s">
+      <c r="C24" s="141" t="s">
         <v>49</v>
       </c>
       <c r="D24" s="15" t="s">
@@ -4415,8 +4802,8 @@
       <c r="K24" s="11"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B25" s="121"/>
-      <c r="C25" s="124"/>
+      <c r="B25" s="143"/>
+      <c r="C25" s="142"/>
       <c r="D25" s="13" t="s">
         <v>59</v>
       </c>
@@ -4431,8 +4818,8 @@
       <c r="K25" s="2"/>
     </row>
     <row r="26" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="121"/>
-      <c r="C26" s="125"/>
+      <c r="B26" s="143"/>
+      <c r="C26" s="145"/>
       <c r="D26" s="16" t="s">
         <v>61</v>
       </c>
@@ -4447,7 +4834,7 @@
       <c r="K26" s="4"/>
     </row>
     <row r="27" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="121"/>
+      <c r="B27" s="143"/>
       <c r="C27" s="23" t="s">
         <v>56</v>
       </c>
@@ -4465,7 +4852,7 @@
       <c r="K27" s="20"/>
     </row>
     <row r="28" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="122"/>
+      <c r="B28" s="144"/>
       <c r="C28" s="23" t="s">
         <v>44</v>
       </c>
@@ -4503,10 +4890,10 @@
       <c r="K29" s="20"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B30" s="123" t="s">
+      <c r="B30" s="141" t="s">
         <v>67</v>
       </c>
-      <c r="C30" s="129" t="s">
+      <c r="C30" s="146" t="s">
         <v>71</v>
       </c>
       <c r="D30" s="15" t="s">
@@ -4523,8 +4910,8 @@
       <c r="K30" s="11"/>
     </row>
     <row r="31" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="124"/>
-      <c r="C31" s="131"/>
+      <c r="B31" s="142"/>
+      <c r="C31" s="147"/>
       <c r="D31" s="14" t="s">
         <v>74</v>
       </c>
@@ -4539,8 +4926,8 @@
       <c r="K31" s="27"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B32" s="121"/>
-      <c r="C32" s="123" t="s">
+      <c r="B32" s="143"/>
+      <c r="C32" s="141" t="s">
         <v>85</v>
       </c>
       <c r="D32" s="15" t="s">
@@ -4557,8 +4944,8 @@
       <c r="K32" s="11"/>
     </row>
     <row r="33" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="121"/>
-      <c r="C33" s="125"/>
+      <c r="B33" s="143"/>
+      <c r="C33" s="145"/>
       <c r="D33" s="16" t="s">
         <v>88</v>
       </c>
@@ -4573,8 +4960,8 @@
       <c r="K33" s="4"/>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B34" s="121"/>
-      <c r="C34" s="123" t="s">
+      <c r="B34" s="143"/>
+      <c r="C34" s="141" t="s">
         <v>90</v>
       </c>
       <c r="D34" s="15" t="s">
@@ -4591,8 +4978,8 @@
       <c r="K34" s="11"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B35" s="121"/>
-      <c r="C35" s="124"/>
+      <c r="B35" s="143"/>
+      <c r="C35" s="142"/>
       <c r="D35" s="13"/>
       <c r="E35" s="1" t="s">
         <v>34</v>
@@ -4605,8 +4992,8 @@
       <c r="K35" s="2"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B36" s="121"/>
-      <c r="C36" s="124"/>
+      <c r="B36" s="143"/>
+      <c r="C36" s="142"/>
       <c r="D36" s="13" t="s">
         <v>31</v>
       </c>
@@ -4621,8 +5008,8 @@
       <c r="K36" s="2"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B37" s="121"/>
-      <c r="C37" s="124"/>
+      <c r="B37" s="143"/>
+      <c r="C37" s="142"/>
       <c r="D37" s="13" t="s">
         <v>92</v>
       </c>
@@ -4637,8 +5024,8 @@
       <c r="K37" s="2"/>
     </row>
     <row r="38" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="121"/>
-      <c r="C38" s="125"/>
+      <c r="B38" s="143"/>
+      <c r="C38" s="145"/>
       <c r="D38" s="16" t="s">
         <v>94</v>
       </c>
@@ -4653,8 +5040,8 @@
       <c r="K38" s="4"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B39" s="121"/>
-      <c r="C39" s="123" t="s">
+      <c r="B39" s="143"/>
+      <c r="C39" s="141" t="s">
         <v>38</v>
       </c>
       <c r="D39" s="15" t="s">
@@ -4671,8 +5058,8 @@
       <c r="K39" s="11"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B40" s="121"/>
-      <c r="C40" s="124"/>
+      <c r="B40" s="143"/>
+      <c r="C40" s="142"/>
       <c r="D40" s="13" t="s">
         <v>31</v>
       </c>
@@ -4687,8 +5074,8 @@
       <c r="K40" s="2"/>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B41" s="121"/>
-      <c r="C41" s="124"/>
+      <c r="B41" s="143"/>
+      <c r="C41" s="142"/>
       <c r="D41" s="13" t="s">
         <v>92</v>
       </c>
@@ -4703,8 +5090,8 @@
       <c r="K41" s="2"/>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B42" s="121"/>
-      <c r="C42" s="124"/>
+      <c r="B42" s="143"/>
+      <c r="C42" s="142"/>
       <c r="D42" s="13" t="s">
         <v>35</v>
       </c>
@@ -4719,8 +5106,8 @@
       <c r="K42" s="2"/>
     </row>
     <row r="43" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="121"/>
-      <c r="C43" s="125"/>
+      <c r="B43" s="143"/>
+      <c r="C43" s="145"/>
       <c r="D43" s="16" t="s">
         <v>97</v>
       </c>
@@ -4735,8 +5122,8 @@
       <c r="K43" s="4"/>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B44" s="121"/>
-      <c r="C44" s="123" t="s">
+      <c r="B44" s="143"/>
+      <c r="C44" s="141" t="s">
         <v>76</v>
       </c>
       <c r="D44" s="15" t="s">
@@ -4753,8 +5140,8 @@
       <c r="K44" s="11"/>
     </row>
     <row r="45" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="121"/>
-      <c r="C45" s="125"/>
+      <c r="B45" s="143"/>
+      <c r="C45" s="145"/>
       <c r="D45" s="16" t="s">
         <v>79</v>
       </c>
@@ -4769,8 +5156,8 @@
       <c r="K45" s="4"/>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B46" s="121"/>
-      <c r="C46" s="123" t="s">
+      <c r="B46" s="143"/>
+      <c r="C46" s="141" t="s">
         <v>81</v>
       </c>
       <c r="D46" s="15" t="s">
@@ -4787,8 +5174,8 @@
       <c r="K46" s="11"/>
     </row>
     <row r="47" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="121"/>
-      <c r="C47" s="125"/>
+      <c r="B47" s="143"/>
+      <c r="C47" s="145"/>
       <c r="D47" s="16" t="s">
         <v>83</v>
       </c>
@@ -4803,8 +5190,8 @@
       <c r="K47" s="4"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B48" s="121"/>
-      <c r="C48" s="123" t="s">
+      <c r="B48" s="143"/>
+      <c r="C48" s="141" t="s">
         <v>56</v>
       </c>
       <c r="D48" s="15" t="s">
@@ -4821,8 +5208,8 @@
       <c r="K48" s="11"/>
     </row>
     <row r="49" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="122"/>
-      <c r="C49" s="125"/>
+      <c r="B49" s="144"/>
+      <c r="C49" s="145"/>
       <c r="D49" s="16" t="s">
         <v>101</v>
       </c>
@@ -4838,6 +5225,18 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C15"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="B9:B19"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C20:C22"/>
     <mergeCell ref="B30:B49"/>
     <mergeCell ref="C39:C43"/>
     <mergeCell ref="C34:C38"/>
@@ -4846,18 +5245,6 @@
     <mergeCell ref="C48:C49"/>
     <mergeCell ref="C46:C47"/>
     <mergeCell ref="C44:C45"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="B9:B19"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="B3:B8"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4887,15 +5274,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="136"/>
-      <c r="B1" s="137"/>
-      <c r="C1" s="137"/>
-      <c r="D1" s="137"/>
-      <c r="E1" s="137"/>
-      <c r="F1" s="137"/>
-      <c r="G1" s="137"/>
-      <c r="H1" s="137"/>
-      <c r="I1" s="138"/>
+      <c r="A1" s="164"/>
+      <c r="B1" s="165"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
+      <c r="F1" s="165"/>
+      <c r="G1" s="165"/>
+      <c r="H1" s="165"/>
+      <c r="I1" s="166"/>
     </row>
     <row r="2" spans="1:9" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="28" t="s">
@@ -4927,21 +5314,21 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="147"/>
-      <c r="B3" s="148"/>
-      <c r="C3" s="148"/>
-      <c r="D3" s="148"/>
-      <c r="E3" s="148"/>
-      <c r="F3" s="148"/>
-      <c r="G3" s="148"/>
-      <c r="H3" s="148"/>
-      <c r="I3" s="149"/>
+      <c r="A3" s="155"/>
+      <c r="B3" s="156"/>
+      <c r="C3" s="156"/>
+      <c r="D3" s="156"/>
+      <c r="E3" s="156"/>
+      <c r="F3" s="156"/>
+      <c r="G3" s="156"/>
+      <c r="H3" s="156"/>
+      <c r="I3" s="157"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="150" t="s">
+      <c r="A4" s="158" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="144" t="s">
+      <c r="B4" s="161" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="37" t="s">
@@ -4957,8 +5344,8 @@
       <c r="I4" s="32"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="142"/>
-      <c r="B5" s="132"/>
+      <c r="A5" s="159"/>
+      <c r="B5" s="162"/>
       <c r="C5" s="38" t="s">
         <v>13</v>
       </c>
@@ -4972,8 +5359,8 @@
       <c r="I5" s="34"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="142"/>
-      <c r="B6" s="132"/>
+      <c r="A6" s="159"/>
+      <c r="B6" s="162"/>
       <c r="C6" s="38" t="s">
         <v>15</v>
       </c>
@@ -4987,8 +5374,8 @@
       <c r="I6" s="34"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="142"/>
-      <c r="B7" s="132" t="s">
+      <c r="A7" s="159"/>
+      <c r="B7" s="162" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="38" t="s">
@@ -5004,8 +5391,8 @@
       <c r="I7" s="34"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="142"/>
-      <c r="B8" s="132"/>
+      <c r="A8" s="159"/>
+      <c r="B8" s="162"/>
       <c r="C8" s="38" t="s">
         <v>20</v>
       </c>
@@ -5019,8 +5406,8 @@
       <c r="I8" s="34"/>
     </row>
     <row r="9" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="151"/>
-      <c r="B9" s="152"/>
+      <c r="A9" s="160"/>
+      <c r="B9" s="163"/>
       <c r="C9" s="39" t="s">
         <v>17</v>
       </c>
@@ -5034,10 +5421,10 @@
       <c r="I9" s="36"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="139" t="s">
+      <c r="A10" s="153" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="145" t="s">
+      <c r="B10" s="170" t="s">
         <v>103</v>
       </c>
       <c r="C10" s="37" t="s">
@@ -5053,8 +5440,8 @@
       <c r="I10" s="32"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="140"/>
-      <c r="B11" s="134"/>
+      <c r="A11" s="154"/>
+      <c r="B11" s="171"/>
       <c r="C11" s="38" t="s">
         <v>105</v>
       </c>
@@ -5068,8 +5455,8 @@
       <c r="I11" s="34"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="140"/>
-      <c r="B12" s="134"/>
+      <c r="A12" s="154"/>
+      <c r="B12" s="171"/>
       <c r="C12" s="38" t="s">
         <v>92</v>
       </c>
@@ -5083,8 +5470,8 @@
       <c r="I12" s="34"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="140"/>
-      <c r="B13" s="135"/>
+      <c r="A13" s="154"/>
+      <c r="B13" s="169"/>
       <c r="C13" s="38" t="s">
         <v>109</v>
       </c>
@@ -5100,8 +5487,8 @@
       <c r="I13" s="34"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="140"/>
-      <c r="B14" s="133" t="s">
+      <c r="A14" s="154"/>
+      <c r="B14" s="172" t="s">
         <v>180</v>
       </c>
       <c r="C14" s="38" t="s">
@@ -5117,8 +5504,8 @@
       <c r="I14" s="34"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="140"/>
-      <c r="B15" s="134"/>
+      <c r="A15" s="154"/>
+      <c r="B15" s="171"/>
       <c r="C15" s="38" t="s">
         <v>184</v>
       </c>
@@ -5132,8 +5519,8 @@
       <c r="I15" s="34"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="140"/>
-      <c r="B16" s="133" t="s">
+      <c r="A16" s="154"/>
+      <c r="B16" s="172" t="s">
         <v>111</v>
       </c>
       <c r="C16" s="58" t="s">
@@ -5149,8 +5536,8 @@
       <c r="I16" s="34"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="140"/>
-      <c r="B17" s="134"/>
+      <c r="A17" s="154"/>
+      <c r="B17" s="171"/>
       <c r="C17" s="38" t="s">
         <v>105</v>
       </c>
@@ -5164,8 +5551,8 @@
       <c r="I17" s="34"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="140"/>
-      <c r="B18" s="134"/>
+      <c r="A18" s="154"/>
+      <c r="B18" s="171"/>
       <c r="C18" s="38" t="s">
         <v>113</v>
       </c>
@@ -5181,8 +5568,8 @@
       <c r="I18" s="34"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="140"/>
-      <c r="B19" s="135"/>
+      <c r="A19" s="154"/>
+      <c r="B19" s="169"/>
       <c r="C19" s="38" t="s">
         <v>109</v>
       </c>
@@ -5196,8 +5583,8 @@
       <c r="I19" s="34"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="140"/>
-      <c r="B20" s="133" t="s">
+      <c r="A20" s="154"/>
+      <c r="B20" s="172" t="s">
         <v>193</v>
       </c>
       <c r="C20" s="59" t="s">
@@ -5213,8 +5600,8 @@
       <c r="I20" s="34"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="140"/>
-      <c r="B21" s="135"/>
+      <c r="A21" s="154"/>
+      <c r="B21" s="169"/>
       <c r="C21" s="59" t="s">
         <v>194</v>
       </c>
@@ -5228,8 +5615,8 @@
       <c r="I21" s="34"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="140"/>
-      <c r="B22" s="133" t="s">
+      <c r="A22" s="154"/>
+      <c r="B22" s="172" t="s">
         <v>115</v>
       </c>
       <c r="C22" s="38" t="s">
@@ -5245,8 +5632,8 @@
       <c r="I22" s="34"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="140"/>
-      <c r="B23" s="134"/>
+      <c r="A23" s="154"/>
+      <c r="B23" s="171"/>
       <c r="C23" s="38" t="s">
         <v>118</v>
       </c>
@@ -5260,8 +5647,8 @@
       <c r="I23" s="34"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="140"/>
-      <c r="B24" s="134"/>
+      <c r="A24" s="154"/>
+      <c r="B24" s="171"/>
       <c r="C24" s="38" t="s">
         <v>120</v>
       </c>
@@ -5275,8 +5662,8 @@
       <c r="I24" s="34"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="140"/>
-      <c r="B25" s="135"/>
+      <c r="A25" s="154"/>
+      <c r="B25" s="169"/>
       <c r="C25" s="38" t="s">
         <v>122</v>
       </c>
@@ -5290,8 +5677,8 @@
       <c r="I25" s="34"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="140"/>
-      <c r="B26" s="133" t="s">
+      <c r="A26" s="154"/>
+      <c r="B26" s="172" t="s">
         <v>174</v>
       </c>
       <c r="C26" s="38" t="s">
@@ -5307,8 +5694,8 @@
       <c r="I26" s="34"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="140"/>
-      <c r="B27" s="134"/>
+      <c r="A27" s="154"/>
+      <c r="B27" s="171"/>
       <c r="C27" s="38" t="s">
         <v>178</v>
       </c>
@@ -5322,8 +5709,8 @@
       <c r="I27" s="34"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="140"/>
-      <c r="B28" s="134"/>
+      <c r="A28" s="154"/>
+      <c r="B28" s="171"/>
       <c r="C28" s="38" t="s">
         <v>182</v>
       </c>
@@ -5337,8 +5724,8 @@
       <c r="I28" s="34"/>
     </row>
     <row r="29" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="140"/>
-      <c r="B29" s="134"/>
+      <c r="A29" s="154"/>
+      <c r="B29" s="171"/>
       <c r="C29" s="58" t="s">
         <v>176</v>
       </c>
@@ -5352,10 +5739,10 @@
       <c r="I29" s="45"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="139" t="s">
+      <c r="A30" s="153" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="144" t="s">
+      <c r="B30" s="161" t="s">
         <v>127</v>
       </c>
       <c r="C30" s="62" t="s">
@@ -5371,8 +5758,8 @@
       <c r="I30" s="32"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="140"/>
-      <c r="B31" s="132"/>
+      <c r="A31" s="154"/>
+      <c r="B31" s="162"/>
       <c r="C31" s="63" t="s">
         <v>129</v>
       </c>
@@ -5386,8 +5773,8 @@
       <c r="I31" s="34"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="140"/>
-      <c r="B32" s="132"/>
+      <c r="A32" s="154"/>
+      <c r="B32" s="162"/>
       <c r="C32" s="63" t="s">
         <v>132</v>
       </c>
@@ -5401,8 +5788,8 @@
       <c r="I32" s="34"/>
     </row>
     <row r="33" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A33" s="140"/>
-      <c r="B33" s="132"/>
+      <c r="A33" s="154"/>
+      <c r="B33" s="162"/>
       <c r="C33" s="63" t="s">
         <v>125</v>
       </c>
@@ -5416,8 +5803,8 @@
       <c r="I33" s="34"/>
     </row>
     <row r="34" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A34" s="140"/>
-      <c r="B34" s="132" t="s">
+      <c r="A34" s="154"/>
+      <c r="B34" s="162" t="s">
         <v>133</v>
       </c>
       <c r="C34" s="63" t="s">
@@ -5433,8 +5820,8 @@
       <c r="I34" s="45"/>
     </row>
     <row r="35" spans="1:16384" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="140"/>
-      <c r="B35" s="132"/>
+      <c r="A35" s="154"/>
+      <c r="B35" s="162"/>
       <c r="C35" s="63" t="s">
         <v>134</v>
       </c>
@@ -21823,8 +22210,8 @@
       <c r="XFD35" s="46"/>
     </row>
     <row r="36" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A36" s="140"/>
-      <c r="B36" s="132"/>
+      <c r="A36" s="154"/>
+      <c r="B36" s="162"/>
       <c r="C36" s="64" t="s">
         <v>187</v>
       </c>
@@ -21836,8 +22223,8 @@
       <c r="I36" s="56"/>
     </row>
     <row r="37" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A37" s="140"/>
-      <c r="B37" s="132" t="s">
+      <c r="A37" s="154"/>
+      <c r="B37" s="162" t="s">
         <v>136</v>
       </c>
       <c r="C37" s="63" t="s">
@@ -21853,8 +22240,8 @@
       <c r="I37" s="34"/>
     </row>
     <row r="38" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A38" s="140"/>
-      <c r="B38" s="132"/>
+      <c r="A38" s="154"/>
+      <c r="B38" s="162"/>
       <c r="C38" s="63" t="s">
         <v>92</v>
       </c>
@@ -21868,7 +22255,7 @@
       <c r="I38" s="34"/>
     </row>
     <row r="39" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A39" s="140"/>
+      <c r="A39" s="154"/>
       <c r="B39" s="57" t="s">
         <v>139</v>
       </c>
@@ -21885,10 +22272,10 @@
       <c r="I39" s="34"/>
     </row>
     <row r="40" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A40" s="141" t="s">
+      <c r="A40" s="167" t="s">
         <v>67</v>
       </c>
-      <c r="B40" s="135" t="s">
+      <c r="B40" s="169" t="s">
         <v>71</v>
       </c>
       <c r="C40" s="41" t="s">
@@ -21904,8 +22291,8 @@
       <c r="I40" s="56"/>
     </row>
     <row r="41" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A41" s="142"/>
-      <c r="B41" s="132"/>
+      <c r="A41" s="159"/>
+      <c r="B41" s="162"/>
       <c r="C41" s="40" t="s">
         <v>74</v>
       </c>
@@ -21919,8 +22306,8 @@
       <c r="I41" s="34"/>
     </row>
     <row r="42" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A42" s="142"/>
-      <c r="B42" s="132" t="s">
+      <c r="A42" s="159"/>
+      <c r="B42" s="162" t="s">
         <v>152</v>
       </c>
       <c r="C42" s="40" t="s">
@@ -21936,8 +22323,8 @@
       <c r="I42" s="34"/>
     </row>
     <row r="43" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A43" s="142"/>
-      <c r="B43" s="132"/>
+      <c r="A43" s="159"/>
+      <c r="B43" s="162"/>
       <c r="C43" s="40" t="s">
         <v>144</v>
       </c>
@@ -21951,11 +22338,11 @@
       <c r="I43" s="34"/>
     </row>
     <row r="44" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A44" s="142"/>
-      <c r="B44" s="132" t="s">
+      <c r="A44" s="159"/>
+      <c r="B44" s="162" t="s">
         <v>163</v>
       </c>
-      <c r="C44" s="133" t="s">
+      <c r="C44" s="172" t="s">
         <v>162</v>
       </c>
       <c r="D44" s="33" t="s">
@@ -21968,9 +22355,9 @@
       <c r="I44" s="34"/>
     </row>
     <row r="45" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A45" s="142"/>
-      <c r="B45" s="132"/>
-      <c r="C45" s="135"/>
+      <c r="A45" s="159"/>
+      <c r="B45" s="162"/>
+      <c r="C45" s="169"/>
       <c r="D45" s="33" t="s">
         <v>164</v>
       </c>
@@ -21981,8 +22368,8 @@
       <c r="I45" s="34"/>
     </row>
     <row r="46" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A46" s="142"/>
-      <c r="B46" s="132"/>
+      <c r="A46" s="159"/>
+      <c r="B46" s="162"/>
       <c r="C46" s="40" t="s">
         <v>112</v>
       </c>
@@ -21996,8 +22383,8 @@
       <c r="I46" s="34"/>
     </row>
     <row r="47" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A47" s="142"/>
-      <c r="B47" s="132"/>
+      <c r="A47" s="159"/>
+      <c r="B47" s="162"/>
       <c r="C47" s="40" t="s">
         <v>106</v>
       </c>
@@ -22011,8 +22398,8 @@
       <c r="I47" s="34"/>
     </row>
     <row r="48" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A48" s="142"/>
-      <c r="B48" s="132"/>
+      <c r="A48" s="159"/>
+      <c r="B48" s="162"/>
       <c r="C48" s="40" t="s">
         <v>147</v>
       </c>
@@ -22026,8 +22413,8 @@
       <c r="I48" s="34"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A49" s="142"/>
-      <c r="B49" s="132" t="s">
+      <c r="A49" s="159"/>
+      <c r="B49" s="162" t="s">
         <v>153</v>
       </c>
       <c r="C49" s="40" t="s">
@@ -22043,8 +22430,8 @@
       <c r="I49" s="34"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A50" s="142"/>
-      <c r="B50" s="132"/>
+      <c r="A50" s="159"/>
+      <c r="B50" s="162"/>
       <c r="C50" s="40" t="s">
         <v>112</v>
       </c>
@@ -22058,8 +22445,8 @@
       <c r="I50" s="34"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A51" s="142"/>
-      <c r="B51" s="132"/>
+      <c r="A51" s="159"/>
+      <c r="B51" s="162"/>
       <c r="C51" s="40" t="s">
         <v>106</v>
       </c>
@@ -22073,8 +22460,8 @@
       <c r="I51" s="34"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A52" s="142"/>
-      <c r="B52" s="132"/>
+      <c r="A52" s="159"/>
+      <c r="B52" s="162"/>
       <c r="C52" s="40" t="s">
         <v>147</v>
       </c>
@@ -22088,8 +22475,8 @@
       <c r="I52" s="34"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A53" s="142"/>
-      <c r="B53" s="133" t="s">
+      <c r="A53" s="159"/>
+      <c r="B53" s="172" t="s">
         <v>154</v>
       </c>
       <c r="C53" s="40" t="s">
@@ -22105,8 +22492,8 @@
       <c r="I53" s="34"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A54" s="142"/>
-      <c r="B54" s="134"/>
+      <c r="A54" s="159"/>
+      <c r="B54" s="171"/>
       <c r="C54" s="49" t="s">
         <v>159</v>
       </c>
@@ -22120,8 +22507,8 @@
       <c r="I54" s="34"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55" s="142"/>
-      <c r="B55" s="132" t="s">
+      <c r="A55" s="159"/>
+      <c r="B55" s="162" t="s">
         <v>76</v>
       </c>
       <c r="C55" s="40" t="s">
@@ -22137,8 +22524,8 @@
       <c r="I55" s="34"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A56" s="142"/>
-      <c r="B56" s="132"/>
+      <c r="A56" s="159"/>
+      <c r="B56" s="162"/>
       <c r="C56" s="40" t="s">
         <v>79</v>
       </c>
@@ -22152,8 +22539,8 @@
       <c r="I56" s="34"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A57" s="142"/>
-      <c r="B57" s="133" t="s">
+      <c r="A57" s="159"/>
+      <c r="B57" s="172" t="s">
         <v>81</v>
       </c>
       <c r="C57" s="40" t="s">
@@ -22169,8 +22556,8 @@
       <c r="I57" s="34"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A58" s="143"/>
-      <c r="B58" s="135"/>
+      <c r="A58" s="168"/>
+      <c r="B58" s="169"/>
       <c r="C58" s="50" t="s">
         <v>167</v>
       </c>
@@ -22184,8 +22571,8 @@
       <c r="I58" s="45"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A59" s="143"/>
-      <c r="B59" s="133" t="s">
+      <c r="A59" s="168"/>
+      <c r="B59" s="172" t="s">
         <v>172</v>
       </c>
       <c r="C59" s="50" t="s">
@@ -22201,8 +22588,8 @@
       <c r="I59" s="45"/>
     </row>
     <row r="60" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="143"/>
-      <c r="B60" s="146"/>
+      <c r="A60" s="168"/>
+      <c r="B60" s="173"/>
       <c r="C60" s="42" t="s">
         <v>171</v>
       </c>
@@ -22465,11 +22852,11 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A30:A39"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="B20:B21"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A10:A29"/>
     <mergeCell ref="A40:A60"/>
@@ -22486,11 +22873,11 @@
     <mergeCell ref="C44:C45"/>
     <mergeCell ref="B59:B60"/>
     <mergeCell ref="B44:B48"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A30:A39"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B7:B9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22535,15 +22922,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="136"/>
-      <c r="B1" s="137"/>
-      <c r="C1" s="137"/>
-      <c r="D1" s="137"/>
-      <c r="E1" s="137"/>
-      <c r="F1" s="137"/>
-      <c r="G1" s="137"/>
-      <c r="H1" s="137"/>
-      <c r="I1" s="138"/>
+      <c r="A1" s="164"/>
+      <c r="B1" s="165"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
+      <c r="F1" s="165"/>
+      <c r="G1" s="165"/>
+      <c r="H1" s="165"/>
+      <c r="I1" s="166"/>
     </row>
     <row r="2" spans="1:15" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="28" t="s">
@@ -22575,15 +22962,15 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="147"/>
-      <c r="B3" s="148"/>
-      <c r="C3" s="148"/>
-      <c r="D3" s="148"/>
-      <c r="E3" s="148"/>
-      <c r="F3" s="148"/>
-      <c r="G3" s="148"/>
-      <c r="H3" s="148"/>
-      <c r="I3" s="149"/>
+      <c r="A3" s="155"/>
+      <c r="B3" s="156"/>
+      <c r="C3" s="156"/>
+      <c r="D3" s="156"/>
+      <c r="E3" s="156"/>
+      <c r="F3" s="156"/>
+      <c r="G3" s="156"/>
+      <c r="H3" s="156"/>
+      <c r="I3" s="157"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="73" t="s">
@@ -22603,10 +22990,10 @@
       <c r="G4" s="31"/>
       <c r="H4" s="31"/>
       <c r="I4" s="32"/>
-      <c r="N4" s="153" t="s">
+      <c r="N4" s="174" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="153" t="s">
+      <c r="O4" s="174" t="s">
         <v>11</v>
       </c>
     </row>
@@ -22628,8 +23015,8 @@
       <c r="G5" s="33"/>
       <c r="H5" s="33"/>
       <c r="I5" s="34"/>
-      <c r="N5" s="153"/>
-      <c r="O5" s="153"/>
+      <c r="N5" s="174"/>
+      <c r="O5" s="174"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="74" t="s">
@@ -22649,8 +23036,8 @@
       <c r="G6" s="33"/>
       <c r="H6" s="33"/>
       <c r="I6" s="34"/>
-      <c r="N6" s="153"/>
-      <c r="O6" s="153"/>
+      <c r="N6" s="174"/>
+      <c r="O6" s="174"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="74" t="s">
@@ -22670,8 +23057,8 @@
       <c r="G7" s="33"/>
       <c r="H7" s="33"/>
       <c r="I7" s="34"/>
-      <c r="N7" s="153"/>
-      <c r="O7" s="153" t="s">
+      <c r="N7" s="174"/>
+      <c r="O7" s="174" t="s">
         <v>275</v>
       </c>
     </row>
@@ -22693,8 +23080,8 @@
       <c r="G8" s="33"/>
       <c r="H8" s="33"/>
       <c r="I8" s="34"/>
-      <c r="N8" s="153"/>
-      <c r="O8" s="153"/>
+      <c r="N8" s="174"/>
+      <c r="O8" s="174"/>
     </row>
     <row r="9" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="75" t="s">
@@ -22714,8 +23101,8 @@
       <c r="G9" s="35"/>
       <c r="H9" s="35"/>
       <c r="I9" s="36"/>
-      <c r="N9" s="153"/>
-      <c r="O9" s="153"/>
+      <c r="N9" s="174"/>
+      <c r="O9" s="174"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="80" t="s">
@@ -22737,10 +23124,10 @@
       <c r="G10" s="31"/>
       <c r="H10" s="31"/>
       <c r="I10" s="32"/>
-      <c r="N10" s="153" t="s">
+      <c r="N10" s="174" t="s">
         <v>23</v>
       </c>
-      <c r="O10" s="153" t="s">
+      <c r="O10" s="174" t="s">
         <v>103</v>
       </c>
     </row>
@@ -22764,8 +23151,8 @@
       <c r="G11" s="33"/>
       <c r="H11" s="33"/>
       <c r="I11" s="34"/>
-      <c r="N11" s="153"/>
-      <c r="O11" s="153"/>
+      <c r="N11" s="174"/>
+      <c r="O11" s="174"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="82" t="s">
@@ -22787,8 +23174,8 @@
       <c r="G12" s="33"/>
       <c r="H12" s="33"/>
       <c r="I12" s="34"/>
-      <c r="N12" s="153"/>
-      <c r="O12" s="153"/>
+      <c r="N12" s="174"/>
+      <c r="O12" s="174"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="82" t="s">
@@ -22808,8 +23195,8 @@
       <c r="G13" s="33"/>
       <c r="H13" s="33"/>
       <c r="I13" s="34"/>
-      <c r="N13" s="153"/>
-      <c r="O13" s="153"/>
+      <c r="N13" s="174"/>
+      <c r="O13" s="174"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="82" t="s">
@@ -22831,8 +23218,8 @@
       <c r="G14" s="33"/>
       <c r="H14" s="33"/>
       <c r="I14" s="34"/>
-      <c r="N14" s="153"/>
-      <c r="O14" s="153"/>
+      <c r="N14" s="174"/>
+      <c r="O14" s="174"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="82" t="s">
@@ -22854,8 +23241,8 @@
       <c r="G15" s="33"/>
       <c r="H15" s="33"/>
       <c r="I15" s="34"/>
-      <c r="N15" s="153"/>
-      <c r="O15" s="153" t="s">
+      <c r="N15" s="174"/>
+      <c r="O15" s="174" t="s">
         <v>111</v>
       </c>
     </row>
@@ -22879,8 +23266,8 @@
       <c r="G16" s="33"/>
       <c r="H16" s="33"/>
       <c r="I16" s="34"/>
-      <c r="N16" s="153"/>
-      <c r="O16" s="153"/>
+      <c r="N16" s="174"/>
+      <c r="O16" s="174"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="82" t="s">
@@ -22902,8 +23289,8 @@
       <c r="G17" s="33"/>
       <c r="H17" s="33"/>
       <c r="I17" s="34"/>
-      <c r="N17" s="153"/>
-      <c r="O17" s="153"/>
+      <c r="N17" s="174"/>
+      <c r="O17" s="174"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="82" t="s">
@@ -22925,8 +23312,8 @@
       <c r="G18" s="33"/>
       <c r="H18" s="33"/>
       <c r="I18" s="34"/>
-      <c r="N18" s="153"/>
-      <c r="O18" s="153"/>
+      <c r="N18" s="174"/>
+      <c r="O18" s="174"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="82" t="s">
@@ -22948,8 +23335,8 @@
       <c r="G19" s="33"/>
       <c r="H19" s="33"/>
       <c r="I19" s="34"/>
-      <c r="N19" s="153"/>
-      <c r="O19" s="153" t="s">
+      <c r="N19" s="174"/>
+      <c r="O19" s="174" t="s">
         <v>180</v>
       </c>
     </row>
@@ -22973,8 +23360,8 @@
       <c r="G20" s="33"/>
       <c r="H20" s="33"/>
       <c r="I20" s="34"/>
-      <c r="N20" s="153"/>
-      <c r="O20" s="153"/>
+      <c r="N20" s="174"/>
+      <c r="O20" s="174"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="82" t="s">
@@ -22994,8 +23381,8 @@
       <c r="G21" s="33"/>
       <c r="H21" s="33"/>
       <c r="I21" s="34"/>
-      <c r="N21" s="153"/>
-      <c r="O21" s="153" t="s">
+      <c r="N21" s="174"/>
+      <c r="O21" s="174" t="s">
         <v>193</v>
       </c>
     </row>
@@ -23017,8 +23404,8 @@
       <c r="G22" s="33"/>
       <c r="H22" s="33"/>
       <c r="I22" s="34"/>
-      <c r="N22" s="153"/>
-      <c r="O22" s="153"/>
+      <c r="N22" s="174"/>
+      <c r="O22" s="174"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="82" t="s">
@@ -23038,8 +23425,8 @@
       <c r="G23" s="33"/>
       <c r="H23" s="33"/>
       <c r="I23" s="34"/>
-      <c r="N23" s="153"/>
-      <c r="O23" s="153" t="s">
+      <c r="N23" s="174"/>
+      <c r="O23" s="174" t="s">
         <v>115</v>
       </c>
     </row>
@@ -23061,8 +23448,8 @@
       <c r="G24" s="33"/>
       <c r="H24" s="33"/>
       <c r="I24" s="34"/>
-      <c r="N24" s="153"/>
-      <c r="O24" s="153"/>
+      <c r="N24" s="174"/>
+      <c r="O24" s="174"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="82" t="s">
@@ -23082,8 +23469,8 @@
       <c r="G25" s="33"/>
       <c r="H25" s="33"/>
       <c r="I25" s="34"/>
-      <c r="N25" s="153"/>
-      <c r="O25" s="153"/>
+      <c r="N25" s="174"/>
+      <c r="O25" s="174"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="82" t="s">
@@ -23103,8 +23490,8 @@
       <c r="G26" s="33"/>
       <c r="H26" s="33"/>
       <c r="I26" s="34"/>
-      <c r="N26" s="153"/>
-      <c r="O26" s="153" t="s">
+      <c r="N26" s="174"/>
+      <c r="O26" s="174" t="s">
         <v>43</v>
       </c>
     </row>
@@ -23126,8 +23513,8 @@
       <c r="G27" s="33"/>
       <c r="H27" s="33"/>
       <c r="I27" s="34"/>
-      <c r="N27" s="153"/>
-      <c r="O27" s="153"/>
+      <c r="N27" s="174"/>
+      <c r="O27" s="174"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="82" t="s">
@@ -23147,8 +23534,8 @@
       <c r="G28" s="33"/>
       <c r="H28" s="33"/>
       <c r="I28" s="34"/>
-      <c r="N28" s="153"/>
-      <c r="O28" s="153"/>
+      <c r="N28" s="174"/>
+      <c r="O28" s="174"/>
     </row>
     <row r="29" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="82" t="s">
@@ -23168,8 +23555,8 @@
       <c r="G29" s="44"/>
       <c r="H29" s="44"/>
       <c r="I29" s="45"/>
-      <c r="N29" s="153"/>
-      <c r="O29" s="153"/>
+      <c r="N29" s="174"/>
+      <c r="O29" s="174"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="80" t="s">
@@ -23189,10 +23576,10 @@
       <c r="G30" s="31"/>
       <c r="H30" s="31"/>
       <c r="I30" s="32"/>
-      <c r="N30" s="153" t="s">
+      <c r="N30" s="174" t="s">
         <v>45</v>
       </c>
-      <c r="O30" s="153" t="s">
+      <c r="O30" s="174" t="s">
         <v>127</v>
       </c>
     </row>
@@ -23214,8 +23601,8 @@
       <c r="G31" s="33"/>
       <c r="H31" s="33"/>
       <c r="I31" s="34"/>
-      <c r="N31" s="153"/>
-      <c r="O31" s="153"/>
+      <c r="N31" s="174"/>
+      <c r="O31" s="174"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="82" t="s">
@@ -23235,8 +23622,8 @@
       <c r="G32" s="33"/>
       <c r="H32" s="33"/>
       <c r="I32" s="34"/>
-      <c r="N32" s="153"/>
-      <c r="O32" s="153"/>
+      <c r="N32" s="174"/>
+      <c r="O32" s="174"/>
     </row>
     <row r="33" spans="1:16383" x14ac:dyDescent="0.3">
       <c r="A33" s="82" t="s">
@@ -23256,8 +23643,8 @@
       <c r="G33" s="33"/>
       <c r="H33" s="33"/>
       <c r="I33" s="34"/>
-      <c r="N33" s="153"/>
-      <c r="O33" s="153"/>
+      <c r="N33" s="174"/>
+      <c r="O33" s="174"/>
     </row>
     <row r="34" spans="1:16383" x14ac:dyDescent="0.3">
       <c r="A34" s="82" t="s">
@@ -23279,8 +23666,8 @@
       <c r="G34" s="44"/>
       <c r="H34" s="44"/>
       <c r="I34" s="45"/>
-      <c r="N34" s="153"/>
-      <c r="O34" s="153" t="s">
+      <c r="N34" s="174"/>
+      <c r="O34" s="174" t="s">
         <v>133</v>
       </c>
     </row>
@@ -23306,8 +23693,8 @@
       <c r="K35" s="46"/>
       <c r="L35" s="46"/>
       <c r="M35" s="46"/>
-      <c r="N35" s="153"/>
-      <c r="O35" s="153"/>
+      <c r="N35" s="174"/>
+      <c r="O35" s="174"/>
       <c r="P35" s="46"/>
       <c r="Q35" s="46"/>
       <c r="R35" s="46"/>
@@ -39697,7 +40084,7 @@
       <c r="G36" s="35"/>
       <c r="H36" s="35"/>
       <c r="I36" s="36"/>
-      <c r="N36" s="153"/>
+      <c r="N36" s="174"/>
       <c r="O36" s="76" t="s">
         <v>139</v>
       </c>
@@ -39720,10 +40107,10 @@
       <c r="G37" s="55"/>
       <c r="H37" s="55"/>
       <c r="I37" s="56"/>
-      <c r="N37" s="153" t="s">
+      <c r="N37" s="174" t="s">
         <v>67</v>
       </c>
-      <c r="O37" s="153" t="s">
+      <c r="O37" s="174" t="s">
         <v>71</v>
       </c>
     </row>
@@ -39745,8 +40132,8 @@
       <c r="G38" s="33"/>
       <c r="H38" s="33"/>
       <c r="I38" s="34"/>
-      <c r="N38" s="153"/>
-      <c r="O38" s="153"/>
+      <c r="N38" s="174"/>
+      <c r="O38" s="174"/>
     </row>
     <row r="39" spans="1:16383" x14ac:dyDescent="0.3">
       <c r="A39" s="74" t="s">
@@ -39766,8 +40153,8 @@
       <c r="G39" s="33"/>
       <c r="H39" s="33"/>
       <c r="I39" s="34"/>
-      <c r="N39" s="153"/>
-      <c r="O39" s="153" t="s">
+      <c r="N39" s="174"/>
+      <c r="O39" s="174" t="s">
         <v>279</v>
       </c>
     </row>
@@ -39789,8 +40176,8 @@
       <c r="G40" s="33"/>
       <c r="H40" s="33"/>
       <c r="I40" s="34"/>
-      <c r="N40" s="153"/>
-      <c r="O40" s="153"/>
+      <c r="N40" s="174"/>
+      <c r="O40" s="174"/>
     </row>
     <row r="41" spans="1:16383" x14ac:dyDescent="0.3">
       <c r="A41" s="74" t="s">
@@ -39812,8 +40199,8 @@
       <c r="G41" s="33"/>
       <c r="H41" s="33"/>
       <c r="I41" s="34"/>
-      <c r="N41" s="153"/>
-      <c r="O41" s="153"/>
+      <c r="N41" s="174"/>
+      <c r="O41" s="174"/>
     </row>
     <row r="42" spans="1:16383" x14ac:dyDescent="0.3">
       <c r="A42" s="74" t="s">
@@ -39833,8 +40220,8 @@
       <c r="G42" s="33"/>
       <c r="H42" s="33"/>
       <c r="I42" s="34"/>
-      <c r="N42" s="153"/>
-      <c r="O42" s="153" t="s">
+      <c r="N42" s="174"/>
+      <c r="O42" s="174" t="s">
         <v>152</v>
       </c>
     </row>
@@ -39858,8 +40245,8 @@
       <c r="G43" s="33"/>
       <c r="H43" s="33"/>
       <c r="I43" s="34"/>
-      <c r="N43" s="153"/>
-      <c r="O43" s="153"/>
+      <c r="N43" s="174"/>
+      <c r="O43" s="174"/>
     </row>
     <row r="44" spans="1:16383" x14ac:dyDescent="0.3">
       <c r="A44" s="74" t="s">
@@ -39881,8 +40268,8 @@
       <c r="G44" s="33"/>
       <c r="H44" s="33"/>
       <c r="I44" s="34"/>
-      <c r="N44" s="153"/>
-      <c r="O44" s="153" t="s">
+      <c r="N44" s="174"/>
+      <c r="O44" s="174" t="s">
         <v>154</v>
       </c>
     </row>
@@ -39906,8 +40293,8 @@
       <c r="G45" s="33"/>
       <c r="H45" s="33"/>
       <c r="I45" s="34"/>
-      <c r="N45" s="153"/>
-      <c r="O45" s="153"/>
+      <c r="N45" s="174"/>
+      <c r="O45" s="174"/>
     </row>
     <row r="46" spans="1:16383" x14ac:dyDescent="0.3">
       <c r="A46" s="88" t="s">
@@ -39929,8 +40316,8 @@
       <c r="G46" s="44"/>
       <c r="H46" s="44"/>
       <c r="I46" s="45"/>
-      <c r="N46" s="153"/>
-      <c r="O46" s="153" t="s">
+      <c r="N46" s="174"/>
+      <c r="O46" s="174" t="s">
         <v>300</v>
       </c>
     </row>
@@ -39954,8 +40341,8 @@
       <c r="G47" s="44"/>
       <c r="H47" s="44"/>
       <c r="I47" s="45"/>
-      <c r="N47" s="153"/>
-      <c r="O47" s="153"/>
+      <c r="N47" s="174"/>
+      <c r="O47" s="174"/>
     </row>
     <row r="48" spans="1:16383" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="70" t="s">
@@ -40207,18 +40594,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="N4:N9"/>
-    <mergeCell ref="O4:O6"/>
-    <mergeCell ref="O7:O9"/>
-    <mergeCell ref="N10:N29"/>
-    <mergeCell ref="O10:O14"/>
-    <mergeCell ref="O15:O18"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="O21:O22"/>
-    <mergeCell ref="O23:O25"/>
-    <mergeCell ref="O26:O29"/>
     <mergeCell ref="N30:N36"/>
     <mergeCell ref="O30:O33"/>
     <mergeCell ref="O34:O35"/>
@@ -40228,6 +40603,18 @@
     <mergeCell ref="O42:O43"/>
     <mergeCell ref="O44:O45"/>
     <mergeCell ref="O46:O47"/>
+    <mergeCell ref="N10:N29"/>
+    <mergeCell ref="O10:O14"/>
+    <mergeCell ref="O15:O18"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="O23:O25"/>
+    <mergeCell ref="O26:O29"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="N4:N9"/>
+    <mergeCell ref="O4:O6"/>
+    <mergeCell ref="O7:O9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -40241,7 +40628,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XEV67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="J42" sqref="J42:J43"/>
     </sheetView>
   </sheetViews>
@@ -40273,58 +40660,58 @@
       <c r="K1" s="90"/>
     </row>
     <row r="2" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="162" t="s">
+      <c r="A2" s="135" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="163" t="s">
+      <c r="B2" s="136" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="163" t="s">
+      <c r="C2" s="136" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="163" t="s">
+      <c r="D2" s="136" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="163" t="s">
+      <c r="E2" s="136" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="163" t="s">
+      <c r="F2" s="136" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="164" t="s">
+      <c r="G2" s="137" t="s">
         <v>308</v>
       </c>
-      <c r="H2" s="164" t="s">
+      <c r="H2" s="137" t="s">
         <v>307</v>
       </c>
-      <c r="I2" s="164" t="s">
+      <c r="I2" s="137" t="s">
         <v>306</v>
       </c>
-      <c r="J2" s="164" t="s">
+      <c r="J2" s="137" t="s">
         <v>309</v>
       </c>
-      <c r="K2" s="164" t="s">
+      <c r="K2" s="137" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="165"/>
-      <c r="B3" s="166"/>
-      <c r="C3" s="166"/>
-      <c r="D3" s="167"/>
-      <c r="E3" s="167"/>
-      <c r="F3" s="167"/>
-      <c r="G3" s="167"/>
-      <c r="H3" s="167"/>
-      <c r="I3" s="167"/>
-      <c r="J3" s="167"/>
-      <c r="K3" s="167"/>
+      <c r="A3" s="138"/>
+      <c r="B3" s="139"/>
+      <c r="C3" s="139"/>
+      <c r="D3" s="140"/>
+      <c r="E3" s="140"/>
+      <c r="F3" s="140"/>
+      <c r="G3" s="140"/>
+      <c r="H3" s="140"/>
+      <c r="I3" s="140"/>
+      <c r="J3" s="140"/>
+      <c r="K3" s="140"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="140" t="s">
+      <c r="A4" s="154" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="134" t="s">
+      <c r="B4" s="171" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="96" t="s">
@@ -40333,7 +40720,7 @@
       <c r="D4" s="117">
         <v>1</v>
       </c>
-      <c r="E4" s="134" t="s">
+      <c r="E4" s="171" t="s">
         <v>315</v>
       </c>
       <c r="F4" s="117"/>
@@ -40348,15 +40735,15 @@
       <c r="K4" s="114"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="140"/>
-      <c r="B5" s="134"/>
+      <c r="A5" s="154"/>
+      <c r="B5" s="171"/>
       <c r="C5" s="92" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="115">
         <v>1</v>
       </c>
-      <c r="E5" s="134"/>
+      <c r="E5" s="171"/>
       <c r="F5" s="115"/>
       <c r="G5" s="109" t="s">
         <v>329</v>
@@ -40369,15 +40756,15 @@
       <c r="K5" s="109"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="140"/>
-      <c r="B6" s="135"/>
+      <c r="A6" s="154"/>
+      <c r="B6" s="169"/>
       <c r="C6" s="92" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="115">
         <v>1</v>
       </c>
-      <c r="E6" s="134"/>
+      <c r="E6" s="171"/>
       <c r="F6" s="115"/>
       <c r="G6" s="109" t="s">
         <v>329</v>
@@ -40390,8 +40777,8 @@
       <c r="K6" s="109"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="140"/>
-      <c r="B7" s="133" t="s">
+      <c r="A7" s="154"/>
+      <c r="B7" s="172" t="s">
         <v>275</v>
       </c>
       <c r="C7" s="92" t="s">
@@ -40400,7 +40787,7 @@
       <c r="D7" s="115">
         <v>1</v>
       </c>
-      <c r="E7" s="134"/>
+      <c r="E7" s="171"/>
       <c r="F7" s="115"/>
       <c r="G7" s="109" t="s">
         <v>330</v>
@@ -40413,15 +40800,15 @@
       <c r="K7" s="109"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="140"/>
-      <c r="B8" s="134"/>
+      <c r="A8" s="154"/>
+      <c r="B8" s="171"/>
       <c r="C8" s="92" t="s">
         <v>276</v>
       </c>
       <c r="D8" s="115">
         <v>1</v>
       </c>
-      <c r="E8" s="134"/>
+      <c r="E8" s="171"/>
       <c r="F8" s="115"/>
       <c r="G8" s="109" t="s">
         <v>330</v>
@@ -40434,15 +40821,15 @@
       <c r="K8" s="109"/>
     </row>
     <row r="9" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="154"/>
-      <c r="B9" s="146"/>
+      <c r="A9" s="175"/>
+      <c r="B9" s="173"/>
       <c r="C9" s="93" t="s">
         <v>275</v>
       </c>
       <c r="D9" s="116">
         <v>1</v>
       </c>
-      <c r="E9" s="146"/>
+      <c r="E9" s="173"/>
       <c r="F9" s="116"/>
       <c r="G9" s="112" t="s">
         <v>330</v>
@@ -40455,19 +40842,19 @@
       <c r="K9" s="112"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="140" t="s">
+      <c r="A10" s="154" t="s">
         <v>198</v>
       </c>
-      <c r="B10" s="134" t="s">
+      <c r="B10" s="171" t="s">
         <v>103</v>
       </c>
-      <c r="C10" s="161" t="s">
+      <c r="C10" s="134" t="s">
         <v>200</v>
       </c>
       <c r="D10" s="117">
         <v>2</v>
       </c>
-      <c r="E10" s="134" t="s">
+      <c r="E10" s="171" t="s">
         <v>319</v>
       </c>
       <c r="F10" s="117"/>
@@ -40478,15 +40865,15 @@
       <c r="K10" s="114"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="140"/>
-      <c r="B11" s="134"/>
+      <c r="A11" s="154"/>
+      <c r="B11" s="171"/>
       <c r="C11" s="100" t="s">
         <v>203</v>
       </c>
       <c r="D11" s="115">
         <v>1</v>
       </c>
-      <c r="E11" s="134"/>
+      <c r="E11" s="171"/>
       <c r="F11" s="115"/>
       <c r="G11" s="109"/>
       <c r="H11" s="109"/>
@@ -40495,15 +40882,15 @@
       <c r="K11" s="109"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="140"/>
-      <c r="B12" s="134"/>
+      <c r="A12" s="154"/>
+      <c r="B12" s="171"/>
       <c r="C12" s="100" t="s">
         <v>206</v>
       </c>
       <c r="D12" s="115">
         <v>1</v>
       </c>
-      <c r="E12" s="134"/>
+      <c r="E12" s="171"/>
       <c r="F12" s="115"/>
       <c r="G12" s="109"/>
       <c r="H12" s="109"/>
@@ -40512,15 +40899,15 @@
       <c r="K12" s="109"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="140"/>
-      <c r="B13" s="134"/>
+      <c r="A13" s="154"/>
+      <c r="B13" s="171"/>
       <c r="C13" s="100" t="s">
         <v>209</v>
       </c>
       <c r="D13" s="115">
         <v>2</v>
       </c>
-      <c r="E13" s="135"/>
+      <c r="E13" s="169"/>
       <c r="F13" s="115"/>
       <c r="G13" s="109"/>
       <c r="H13" s="109"/>
@@ -40529,8 +40916,8 @@
       <c r="K13" s="109"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="140"/>
-      <c r="B14" s="135"/>
+      <c r="A14" s="154"/>
+      <c r="B14" s="169"/>
       <c r="C14" s="103" t="s">
         <v>211</v>
       </c>
@@ -40546,8 +40933,8 @@
       <c r="K14" s="109"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="140"/>
-      <c r="B15" s="133" t="s">
+      <c r="A15" s="154"/>
+      <c r="B15" s="172" t="s">
         <v>111</v>
       </c>
       <c r="C15" s="101" t="s">
@@ -40556,7 +40943,7 @@
       <c r="D15" s="115">
         <v>2</v>
       </c>
-      <c r="E15" s="133" t="s">
+      <c r="E15" s="172" t="s">
         <v>319</v>
       </c>
       <c r="F15" s="115"/>
@@ -40567,15 +40954,15 @@
       <c r="K15" s="109"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="140"/>
-      <c r="B16" s="134"/>
+      <c r="A16" s="154"/>
+      <c r="B16" s="171"/>
       <c r="C16" s="100" t="s">
         <v>223</v>
       </c>
       <c r="D16" s="115">
         <v>1</v>
       </c>
-      <c r="E16" s="134"/>
+      <c r="E16" s="171"/>
       <c r="F16" s="115"/>
       <c r="G16" s="109"/>
       <c r="H16" s="109"/>
@@ -40584,15 +40971,15 @@
       <c r="K16" s="109"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="140"/>
-      <c r="B17" s="134"/>
+      <c r="A17" s="154"/>
+      <c r="B17" s="171"/>
       <c r="C17" s="100" t="s">
         <v>225</v>
       </c>
       <c r="D17" s="115">
         <v>1</v>
       </c>
-      <c r="E17" s="135"/>
+      <c r="E17" s="169"/>
       <c r="F17" s="115"/>
       <c r="G17" s="109"/>
       <c r="H17" s="109"/>
@@ -40601,8 +40988,8 @@
       <c r="K17" s="109"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="140"/>
-      <c r="B18" s="135"/>
+      <c r="A18" s="154"/>
+      <c r="B18" s="169"/>
       <c r="C18" s="103" t="s">
         <v>228</v>
       </c>
@@ -40618,8 +41005,8 @@
       <c r="K18" s="109"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="140"/>
-      <c r="B19" s="133" t="s">
+      <c r="A19" s="154"/>
+      <c r="B19" s="172" t="s">
         <v>180</v>
       </c>
       <c r="C19" s="97" t="s">
@@ -40628,7 +41015,7 @@
       <c r="D19" s="115">
         <v>1</v>
       </c>
-      <c r="E19" s="133" t="s">
+      <c r="E19" s="172" t="s">
         <v>327</v>
       </c>
       <c r="F19" s="115"/>
@@ -40643,15 +41030,15 @@
       <c r="K19" s="109"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="140"/>
-      <c r="B20" s="135"/>
+      <c r="A20" s="154"/>
+      <c r="B20" s="169"/>
       <c r="C20" s="97" t="s">
         <v>184</v>
       </c>
       <c r="D20" s="115">
         <v>2</v>
       </c>
-      <c r="E20" s="134"/>
+      <c r="E20" s="171"/>
       <c r="F20" s="115"/>
       <c r="G20" s="109" t="s">
         <v>339</v>
@@ -40664,8 +41051,8 @@
       <c r="K20" s="109"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="140"/>
-      <c r="B21" s="133" t="s">
+      <c r="A21" s="154"/>
+      <c r="B21" s="172" t="s">
         <v>193</v>
       </c>
       <c r="C21" s="97" t="s">
@@ -40674,7 +41061,7 @@
       <c r="D21" s="115">
         <v>3</v>
       </c>
-      <c r="E21" s="135"/>
+      <c r="E21" s="169"/>
       <c r="F21" s="115"/>
       <c r="G21" s="109" t="s">
         <v>340</v>
@@ -40687,13 +41074,13 @@
       <c r="K21" s="109"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="140"/>
-      <c r="B22" s="135"/>
+      <c r="A22" s="154"/>
+      <c r="B22" s="169"/>
       <c r="C22" s="103" t="s">
         <v>194</v>
       </c>
       <c r="D22" s="115"/>
-      <c r="E22" s="133" t="s">
+      <c r="E22" s="172" t="s">
         <v>321</v>
       </c>
       <c r="F22" s="115"/>
@@ -40704,15 +41091,15 @@
       <c r="K22" s="109"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="140"/>
-      <c r="B23" s="133" t="s">
+      <c r="A23" s="154"/>
+      <c r="B23" s="172" t="s">
         <v>115</v>
       </c>
       <c r="C23" s="103" t="s">
         <v>116</v>
       </c>
       <c r="D23" s="115"/>
-      <c r="E23" s="134"/>
+      <c r="E23" s="171"/>
       <c r="F23" s="115"/>
       <c r="G23" s="109"/>
       <c r="H23" s="109"/>
@@ -40721,13 +41108,13 @@
       <c r="K23" s="109"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="140"/>
-      <c r="B24" s="134"/>
+      <c r="A24" s="154"/>
+      <c r="B24" s="171"/>
       <c r="C24" s="103" t="s">
         <v>118</v>
       </c>
       <c r="D24" s="115"/>
-      <c r="E24" s="134"/>
+      <c r="E24" s="171"/>
       <c r="F24" s="115"/>
       <c r="G24" s="109"/>
       <c r="H24" s="109"/>
@@ -40736,13 +41123,13 @@
       <c r="K24" s="109"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="140"/>
-      <c r="B25" s="135"/>
+      <c r="A25" s="154"/>
+      <c r="B25" s="169"/>
       <c r="C25" s="103" t="s">
         <v>236</v>
       </c>
       <c r="D25" s="115"/>
-      <c r="E25" s="135"/>
+      <c r="E25" s="169"/>
       <c r="F25" s="115"/>
       <c r="G25" s="109"/>
       <c r="H25" s="109"/>
@@ -40751,15 +41138,15 @@
       <c r="K25" s="109"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="140"/>
-      <c r="B26" s="133" t="s">
+      <c r="A26" s="154"/>
+      <c r="B26" s="172" t="s">
         <v>43</v>
       </c>
       <c r="C26" s="97" t="s">
         <v>44</v>
       </c>
       <c r="D26" s="115"/>
-      <c r="E26" s="133" t="s">
+      <c r="E26" s="172" t="s">
         <v>316</v>
       </c>
       <c r="F26" s="115"/>
@@ -40770,13 +41157,13 @@
       <c r="K26" s="109"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="140"/>
-      <c r="B27" s="134"/>
+      <c r="A27" s="154"/>
+      <c r="B27" s="171"/>
       <c r="C27" s="97" t="s">
         <v>178</v>
       </c>
       <c r="D27" s="115"/>
-      <c r="E27" s="134"/>
+      <c r="E27" s="171"/>
       <c r="F27" s="115"/>
       <c r="G27" s="109"/>
       <c r="H27" s="109"/>
@@ -40785,13 +41172,13 @@
       <c r="K27" s="109"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="140"/>
-      <c r="B28" s="134"/>
+      <c r="A28" s="154"/>
+      <c r="B28" s="171"/>
       <c r="C28" s="97" t="s">
         <v>311</v>
       </c>
       <c r="D28" s="115"/>
-      <c r="E28" s="134"/>
+      <c r="E28" s="171"/>
       <c r="F28" s="115"/>
       <c r="G28" s="109"/>
       <c r="H28" s="109"/>
@@ -40800,9 +41187,9 @@
       <c r="K28" s="109"/>
     </row>
     <row r="29" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="154"/>
-      <c r="B29" s="146"/>
-      <c r="C29" s="159" t="s">
+      <c r="A29" s="175"/>
+      <c r="B29" s="173"/>
+      <c r="C29" s="132" t="s">
         <v>304</v>
       </c>
       <c r="D29" s="116"/>
@@ -40817,17 +41204,17 @@
       <c r="K29" s="112"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="140" t="s">
+      <c r="A30" s="154" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="134" t="s">
+      <c r="B30" s="171" t="s">
         <v>127</v>
       </c>
-      <c r="C30" s="160" t="s">
+      <c r="C30" s="133" t="s">
         <v>126</v>
       </c>
       <c r="D30" s="117"/>
-      <c r="E30" s="134" t="s">
+      <c r="E30" s="171" t="s">
         <v>317</v>
       </c>
       <c r="F30" s="117"/>
@@ -40842,13 +41229,13 @@
       <c r="K30" s="114"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="140"/>
-      <c r="B31" s="134"/>
+      <c r="A31" s="154"/>
+      <c r="B31" s="171"/>
       <c r="C31" s="95" t="s">
         <v>129</v>
       </c>
       <c r="D31" s="115"/>
-      <c r="E31" s="135"/>
+      <c r="E31" s="169"/>
       <c r="F31" s="115"/>
       <c r="G31" s="109" t="s">
         <v>331</v>
@@ -40861,13 +41248,13 @@
       <c r="K31" s="109"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="140"/>
-      <c r="B32" s="134"/>
+      <c r="A32" s="154"/>
+      <c r="B32" s="171"/>
       <c r="C32" s="104" t="s">
         <v>132</v>
       </c>
       <c r="D32" s="115"/>
-      <c r="E32" s="133" t="s">
+      <c r="E32" s="172" t="s">
         <v>320</v>
       </c>
       <c r="F32" s="115"/>
@@ -40878,13 +41265,13 @@
       <c r="K32" s="109"/>
     </row>
     <row r="33" spans="1:16376" x14ac:dyDescent="0.3">
-      <c r="A33" s="140"/>
-      <c r="B33" s="135"/>
+      <c r="A33" s="154"/>
+      <c r="B33" s="169"/>
       <c r="C33" s="104" t="s">
         <v>125</v>
       </c>
       <c r="D33" s="115"/>
-      <c r="E33" s="135"/>
+      <c r="E33" s="169"/>
       <c r="F33" s="115"/>
       <c r="G33" s="109"/>
       <c r="H33" s="109"/>
@@ -40893,8 +41280,8 @@
       <c r="K33" s="109"/>
     </row>
     <row r="34" spans="1:16376" x14ac:dyDescent="0.3">
-      <c r="A34" s="140"/>
-      <c r="B34" s="133" t="s">
+      <c r="A34" s="154"/>
+      <c r="B34" s="172" t="s">
         <v>133</v>
       </c>
       <c r="C34" s="102" t="s">
@@ -40903,7 +41290,7 @@
       <c r="D34" s="118">
         <v>2</v>
       </c>
-      <c r="E34" s="133" t="s">
+      <c r="E34" s="172" t="s">
         <v>326</v>
       </c>
       <c r="F34" s="118"/>
@@ -40918,15 +41305,15 @@
       <c r="K34" s="113"/>
     </row>
     <row r="35" spans="1:16376" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="140"/>
-      <c r="B35" s="135"/>
+      <c r="A35" s="154"/>
+      <c r="B35" s="169"/>
       <c r="C35" s="102" t="s">
         <v>134</v>
       </c>
       <c r="D35" s="115">
         <v>3</v>
       </c>
-      <c r="E35" s="135"/>
+      <c r="E35" s="169"/>
       <c r="F35" s="115"/>
       <c r="G35" s="109" t="s">
         <v>340</v>
@@ -57304,7 +57691,7 @@
       <c r="XEV35" s="46"/>
     </row>
     <row r="36" spans="1:16376" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="154"/>
+      <c r="A36" s="175"/>
       <c r="B36" s="116" t="s">
         <v>139</v>
       </c>
@@ -57323,10 +57710,10 @@
       <c r="K36" s="112"/>
     </row>
     <row r="37" spans="1:16376" x14ac:dyDescent="0.3">
-      <c r="A37" s="140" t="s">
+      <c r="A37" s="154" t="s">
         <v>67</v>
       </c>
-      <c r="B37" s="134" t="s">
+      <c r="B37" s="171" t="s">
         <v>71</v>
       </c>
       <c r="C37" s="96" t="s">
@@ -57335,7 +57722,7 @@
       <c r="D37" s="117">
         <v>3</v>
       </c>
-      <c r="E37" s="134" t="s">
+      <c r="E37" s="171" t="s">
         <v>318</v>
       </c>
       <c r="F37" s="117"/>
@@ -57350,15 +57737,15 @@
       <c r="K37" s="114"/>
     </row>
     <row r="38" spans="1:16376" x14ac:dyDescent="0.3">
-      <c r="A38" s="140"/>
-      <c r="B38" s="135"/>
+      <c r="A38" s="154"/>
+      <c r="B38" s="169"/>
       <c r="C38" s="92" t="s">
         <v>74</v>
       </c>
       <c r="D38" s="115">
         <v>3</v>
       </c>
-      <c r="E38" s="135"/>
+      <c r="E38" s="169"/>
       <c r="F38" s="115"/>
       <c r="G38" s="109" t="s">
         <v>331</v>
@@ -57371,8 +57758,8 @@
       <c r="K38" s="109"/>
     </row>
     <row r="39" spans="1:16376" x14ac:dyDescent="0.3">
-      <c r="A39" s="140"/>
-      <c r="B39" s="133" t="s">
+      <c r="A39" s="154"/>
+      <c r="B39" s="172" t="s">
         <v>279</v>
       </c>
       <c r="C39" s="100" t="s">
@@ -57381,7 +57768,7 @@
       <c r="D39" s="115">
         <v>1</v>
       </c>
-      <c r="E39" s="133" t="s">
+      <c r="E39" s="172" t="s">
         <v>319</v>
       </c>
       <c r="F39" s="115"/>
@@ -57392,15 +57779,15 @@
       <c r="K39" s="109"/>
     </row>
     <row r="40" spans="1:16376" x14ac:dyDescent="0.3">
-      <c r="A40" s="140"/>
-      <c r="B40" s="134"/>
+      <c r="A40" s="154"/>
+      <c r="B40" s="171"/>
       <c r="C40" s="100" t="s">
         <v>282</v>
       </c>
       <c r="D40" s="115">
         <v>1</v>
       </c>
-      <c r="E40" s="134"/>
+      <c r="E40" s="171"/>
       <c r="F40" s="115"/>
       <c r="G40" s="109"/>
       <c r="H40" s="109"/>
@@ -57409,15 +57796,15 @@
       <c r="K40" s="109"/>
     </row>
     <row r="41" spans="1:16376" x14ac:dyDescent="0.3">
-      <c r="A41" s="140"/>
-      <c r="B41" s="135"/>
+      <c r="A41" s="154"/>
+      <c r="B41" s="169"/>
       <c r="C41" s="100" t="s">
         <v>281</v>
       </c>
       <c r="D41" s="115">
         <v>1</v>
       </c>
-      <c r="E41" s="135"/>
+      <c r="E41" s="169"/>
       <c r="F41" s="115"/>
       <c r="G41" s="109"/>
       <c r="H41" s="109"/>
@@ -57426,8 +57813,8 @@
       <c r="K41" s="109"/>
     </row>
     <row r="42" spans="1:16376" x14ac:dyDescent="0.3">
-      <c r="A42" s="140"/>
-      <c r="B42" s="133" t="s">
+      <c r="A42" s="154"/>
+      <c r="B42" s="172" t="s">
         <v>152</v>
       </c>
       <c r="C42" s="97" t="s">
@@ -57436,7 +57823,7 @@
       <c r="D42" s="115">
         <v>2</v>
       </c>
-      <c r="E42" s="133" t="s">
+      <c r="E42" s="172" t="s">
         <v>325</v>
       </c>
       <c r="F42" s="115"/>
@@ -57451,15 +57838,15 @@
       <c r="K42" s="109"/>
     </row>
     <row r="43" spans="1:16376" x14ac:dyDescent="0.3">
-      <c r="A43" s="140"/>
-      <c r="B43" s="135"/>
+      <c r="A43" s="154"/>
+      <c r="B43" s="169"/>
       <c r="C43" s="97" t="s">
         <v>144</v>
       </c>
       <c r="D43" s="115">
         <v>3</v>
       </c>
-      <c r="E43" s="135"/>
+      <c r="E43" s="169"/>
       <c r="F43" s="115"/>
       <c r="G43" s="109" t="s">
         <v>340</v>
@@ -57472,15 +57859,15 @@
       <c r="K43" s="109"/>
     </row>
     <row r="44" spans="1:16376" x14ac:dyDescent="0.3">
-      <c r="A44" s="140"/>
-      <c r="B44" s="133" t="s">
+      <c r="A44" s="154"/>
+      <c r="B44" s="172" t="s">
         <v>154</v>
       </c>
       <c r="C44" s="103" t="s">
         <v>155</v>
       </c>
       <c r="D44" s="115"/>
-      <c r="E44" s="133" t="s">
+      <c r="E44" s="172" t="s">
         <v>323</v>
       </c>
       <c r="F44" s="115"/>
@@ -57491,13 +57878,13 @@
       <c r="K44" s="109"/>
     </row>
     <row r="45" spans="1:16376" x14ac:dyDescent="0.3">
-      <c r="A45" s="140"/>
-      <c r="B45" s="135"/>
+      <c r="A45" s="154"/>
+      <c r="B45" s="169"/>
       <c r="C45" s="103" t="s">
         <v>92</v>
       </c>
       <c r="D45" s="115"/>
-      <c r="E45" s="135"/>
+      <c r="E45" s="169"/>
       <c r="F45" s="115"/>
       <c r="G45" s="109"/>
       <c r="H45" s="109"/>
@@ -57506,15 +57893,15 @@
       <c r="K45" s="109"/>
     </row>
     <row r="46" spans="1:16376" x14ac:dyDescent="0.3">
-      <c r="A46" s="140"/>
-      <c r="B46" s="133" t="s">
+      <c r="A46" s="154"/>
+      <c r="B46" s="172" t="s">
         <v>300</v>
       </c>
       <c r="C46" s="98" t="s">
         <v>302</v>
       </c>
       <c r="D46" s="118"/>
-      <c r="E46" s="133" t="s">
+      <c r="E46" s="172" t="s">
         <v>324</v>
       </c>
       <c r="F46" s="118"/>
@@ -57525,13 +57912,13 @@
       <c r="K46" s="113"/>
     </row>
     <row r="47" spans="1:16376" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="154"/>
-      <c r="B47" s="146"/>
-      <c r="C47" s="159" t="s">
+      <c r="A47" s="175"/>
+      <c r="B47" s="173"/>
+      <c r="C47" s="132" t="s">
         <v>303</v>
       </c>
       <c r="D47" s="116"/>
-      <c r="E47" s="146"/>
+      <c r="E47" s="173"/>
       <c r="F47" s="116"/>
       <c r="G47" s="112"/>
       <c r="H47" s="112"/>
@@ -57540,13 +57927,13 @@
       <c r="K47" s="112"/>
     </row>
     <row r="48" spans="1:16376" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="155" t="s">
+      <c r="A48" s="128" t="s">
         <v>68</v>
       </c>
-      <c r="B48" s="156" t="s">
+      <c r="B48" s="129" t="s">
         <v>69</v>
       </c>
-      <c r="C48" s="157" t="s">
+      <c r="C48" s="130" t="s">
         <v>69</v>
       </c>
       <c r="D48" s="119">
@@ -57556,15 +57943,15 @@
         <v>314</v>
       </c>
       <c r="F48" s="119"/>
-      <c r="G48" s="158" t="s">
+      <c r="G48" s="131" t="s">
         <v>328</v>
       </c>
-      <c r="H48" s="158"/>
-      <c r="I48" s="158"/>
-      <c r="J48" s="158" t="s">
+      <c r="H48" s="131"/>
+      <c r="I48" s="131"/>
+      <c r="J48" s="131" t="s">
         <v>332</v>
       </c>
-      <c r="K48" s="158"/>
+      <c r="K48" s="131"/>
       <c r="L48" s="48"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
@@ -57835,20 +58222,15 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="E26:E28"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="E39:E41"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="E4:E9"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="A30:A36"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="A37:A47"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B46:B47"/>
     <mergeCell ref="A4:A9"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="B7:B9"/>
@@ -57859,15 +58241,1909 @@
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B23:B25"/>
     <mergeCell ref="B26:B29"/>
-    <mergeCell ref="A30:A36"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="A37:A47"/>
+    <mergeCell ref="E4:E9"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="E42:E43"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P60"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34:E36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.375" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="3" max="3" width="19.75" customWidth="1"/>
+    <col min="4" max="4" width="7" style="111" customWidth="1"/>
+    <col min="5" max="5" width="11.25" style="111" customWidth="1"/>
+    <col min="6" max="6" width="5.375" style="111" customWidth="1"/>
+    <col min="7" max="9" width="8.5" style="111" customWidth="1"/>
+    <col min="10" max="10" width="8.25" style="111" customWidth="1"/>
+    <col min="11" max="11" width="5.375" style="111" customWidth="1"/>
+    <col min="12" max="12" width="7.125" style="111" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="7.125" style="111" customWidth="1"/>
+    <col min="15" max="15" width="7.125" style="111" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="107"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="123"/>
+      <c r="I1" s="123"/>
+      <c r="J1" s="123"/>
+      <c r="K1" s="123"/>
+      <c r="L1" s="123"/>
+      <c r="M1" s="123"/>
+      <c r="N1" s="123"/>
+      <c r="O1" s="123"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="176" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="177" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="177" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="177" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="177" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="177" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="177" t="s">
+        <v>343</v>
+      </c>
+      <c r="H2" s="178" t="s">
+        <v>344</v>
+      </c>
+      <c r="I2" s="179"/>
+      <c r="J2" s="180"/>
+      <c r="K2" s="177" t="s">
+        <v>345</v>
+      </c>
+      <c r="L2" s="177" t="s">
+        <v>343</v>
+      </c>
+      <c r="M2" s="178" t="s">
+        <v>344</v>
+      </c>
+      <c r="N2" s="179"/>
+      <c r="O2" s="180"/>
+    </row>
+    <row r="3" spans="1:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="181"/>
+      <c r="B3" s="182"/>
+      <c r="C3" s="182"/>
+      <c r="D3" s="182"/>
+      <c r="E3" s="182"/>
+      <c r="F3" s="182"/>
+      <c r="G3" s="182"/>
+      <c r="H3" s="183" t="s">
+        <v>346</v>
+      </c>
+      <c r="I3" s="183" t="s">
+        <v>347</v>
+      </c>
+      <c r="J3" s="183" t="s">
+        <v>348</v>
+      </c>
+      <c r="K3" s="182"/>
+      <c r="L3" s="182"/>
+      <c r="M3" s="183" t="s">
+        <v>346</v>
+      </c>
+      <c r="N3" s="183" t="s">
+        <v>347</v>
+      </c>
+      <c r="O3" s="183" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="184"/>
+      <c r="B4" s="185"/>
+      <c r="C4" s="185"/>
+      <c r="D4" s="126"/>
+      <c r="E4" s="126"/>
+      <c r="F4" s="126"/>
+      <c r="G4" s="123"/>
+      <c r="H4" s="123"/>
+      <c r="I4" s="123"/>
+      <c r="J4" s="123"/>
+      <c r="K4" s="126"/>
+      <c r="L4" s="126"/>
+      <c r="M4" s="126"/>
+      <c r="N4" s="126"/>
+      <c r="O4" s="126"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="153" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="170" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="91" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="124">
+        <v>1</v>
+      </c>
+      <c r="E5" s="170" t="s">
+        <v>349</v>
+      </c>
+      <c r="F5" s="124"/>
+      <c r="G5" s="114" t="s">
+        <v>350</v>
+      </c>
+      <c r="H5" s="114"/>
+      <c r="I5" s="122"/>
+      <c r="J5" s="124"/>
+      <c r="K5" s="186"/>
+      <c r="L5" s="124" t="s">
+        <v>351</v>
+      </c>
+      <c r="M5" s="186"/>
+      <c r="N5" s="186"/>
+      <c r="O5" s="186"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="154"/>
+      <c r="B6" s="171"/>
+      <c r="C6" s="92" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="120">
+        <v>1</v>
+      </c>
+      <c r="E6" s="171"/>
+      <c r="F6" s="120"/>
+      <c r="G6" s="114" t="s">
+        <v>350</v>
+      </c>
+      <c r="H6" s="114"/>
+      <c r="I6" s="114"/>
+      <c r="J6" s="120"/>
+      <c r="K6" s="109"/>
+      <c r="L6" s="120" t="s">
+        <v>351</v>
+      </c>
+      <c r="M6" s="114"/>
+      <c r="N6" s="114"/>
+      <c r="O6" s="109"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="154"/>
+      <c r="B7" s="169"/>
+      <c r="C7" s="92" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="120">
+        <v>1</v>
+      </c>
+      <c r="E7" s="171"/>
+      <c r="F7" s="120"/>
+      <c r="G7" s="114" t="s">
+        <v>350</v>
+      </c>
+      <c r="H7" s="114"/>
+      <c r="I7" s="114"/>
+      <c r="J7" s="114"/>
+      <c r="K7" s="109"/>
+      <c r="L7" s="120" t="s">
+        <v>351</v>
+      </c>
+      <c r="M7" s="114"/>
+      <c r="N7" s="114"/>
+      <c r="O7" s="109"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="154"/>
+      <c r="B8" s="172" t="s">
+        <v>352</v>
+      </c>
+      <c r="C8" s="92" t="s">
+        <v>353</v>
+      </c>
+      <c r="D8" s="120">
+        <v>1</v>
+      </c>
+      <c r="E8" s="171"/>
+      <c r="F8" s="120"/>
+      <c r="G8" s="109" t="s">
+        <v>354</v>
+      </c>
+      <c r="H8" s="109"/>
+      <c r="I8" s="109"/>
+      <c r="J8" s="109"/>
+      <c r="K8" s="109"/>
+      <c r="L8" s="120" t="s">
+        <v>351</v>
+      </c>
+      <c r="M8" s="109"/>
+      <c r="N8" s="109"/>
+      <c r="O8" s="109"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="154"/>
+      <c r="B9" s="171"/>
+      <c r="C9" s="92" t="s">
+        <v>355</v>
+      </c>
+      <c r="D9" s="120">
+        <v>1</v>
+      </c>
+      <c r="E9" s="171"/>
+      <c r="F9" s="120"/>
+      <c r="G9" s="109" t="s">
+        <v>354</v>
+      </c>
+      <c r="H9" s="109"/>
+      <c r="I9" s="109"/>
+      <c r="J9" s="109"/>
+      <c r="K9" s="109"/>
+      <c r="L9" s="120" t="s">
+        <v>351</v>
+      </c>
+      <c r="M9" s="109"/>
+      <c r="N9" s="109"/>
+      <c r="O9" s="109"/>
+    </row>
+    <row r="10" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="175"/>
+      <c r="B10" s="173"/>
+      <c r="C10" s="93" t="s">
+        <v>352</v>
+      </c>
+      <c r="D10" s="127">
+        <v>1</v>
+      </c>
+      <c r="E10" s="173"/>
+      <c r="F10" s="127"/>
+      <c r="G10" s="109" t="s">
+        <v>354</v>
+      </c>
+      <c r="H10" s="109"/>
+      <c r="I10" s="109"/>
+      <c r="J10" s="109"/>
+      <c r="K10" s="112"/>
+      <c r="L10" s="120" t="s">
+        <v>351</v>
+      </c>
+      <c r="M10" s="113"/>
+      <c r="N10" s="113"/>
+      <c r="O10" s="112"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="153" t="s">
+        <v>356</v>
+      </c>
+      <c r="B11" s="170" t="s">
+        <v>357</v>
+      </c>
+      <c r="C11" s="99" t="s">
+        <v>358</v>
+      </c>
+      <c r="D11" s="124">
+        <v>2</v>
+      </c>
+      <c r="E11" s="170" t="s">
+        <v>319</v>
+      </c>
+      <c r="F11" s="124"/>
+      <c r="G11" s="186"/>
+      <c r="H11" s="186"/>
+      <c r="I11" s="186"/>
+      <c r="J11" s="186"/>
+      <c r="K11" s="186"/>
+      <c r="L11" s="186"/>
+      <c r="M11" s="186"/>
+      <c r="N11" s="186"/>
+      <c r="O11" s="186"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="154"/>
+      <c r="B12" s="171"/>
+      <c r="C12" s="100" t="s">
+        <v>359</v>
+      </c>
+      <c r="D12" s="120">
+        <v>1</v>
+      </c>
+      <c r="E12" s="171"/>
+      <c r="F12" s="120"/>
+      <c r="G12" s="109"/>
+      <c r="H12" s="109"/>
+      <c r="I12" s="109"/>
+      <c r="J12" s="109"/>
+      <c r="K12" s="109"/>
+      <c r="L12" s="109"/>
+      <c r="M12" s="109"/>
+      <c r="N12" s="109"/>
+      <c r="O12" s="109"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="154"/>
+      <c r="B13" s="171"/>
+      <c r="C13" s="100" t="s">
+        <v>360</v>
+      </c>
+      <c r="D13" s="120">
+        <v>1</v>
+      </c>
+      <c r="E13" s="171"/>
+      <c r="F13" s="120"/>
+      <c r="G13" s="109"/>
+      <c r="H13" s="109"/>
+      <c r="I13" s="109"/>
+      <c r="J13" s="109"/>
+      <c r="K13" s="109"/>
+      <c r="L13" s="109"/>
+      <c r="M13" s="109"/>
+      <c r="N13" s="109"/>
+      <c r="O13" s="109"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="154"/>
+      <c r="B14" s="171"/>
+      <c r="C14" s="100" t="s">
+        <v>361</v>
+      </c>
+      <c r="D14" s="120">
+        <v>2</v>
+      </c>
+      <c r="E14" s="169"/>
+      <c r="F14" s="120"/>
+      <c r="G14" s="109"/>
+      <c r="H14" s="109"/>
+      <c r="I14" s="109"/>
+      <c r="J14" s="109"/>
+      <c r="K14" s="109"/>
+      <c r="L14" s="109"/>
+      <c r="M14" s="109"/>
+      <c r="N14" s="109"/>
+      <c r="O14" s="109"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="154"/>
+      <c r="B15" s="172" t="s">
+        <v>362</v>
+      </c>
+      <c r="C15" s="101" t="s">
+        <v>363</v>
+      </c>
+      <c r="D15" s="120">
+        <v>2</v>
+      </c>
+      <c r="E15" s="172" t="s">
+        <v>319</v>
+      </c>
+      <c r="F15" s="120"/>
+      <c r="G15" s="109"/>
+      <c r="H15" s="109"/>
+      <c r="I15" s="109"/>
+      <c r="J15" s="109"/>
+      <c r="K15" s="109"/>
+      <c r="L15" s="109"/>
+      <c r="M15" s="109"/>
+      <c r="N15" s="109"/>
+      <c r="O15" s="109"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" s="154"/>
+      <c r="B16" s="171"/>
+      <c r="C16" s="100" t="s">
+        <v>364</v>
+      </c>
+      <c r="D16" s="120">
+        <v>1</v>
+      </c>
+      <c r="E16" s="171"/>
+      <c r="F16" s="120"/>
+      <c r="G16" s="109"/>
+      <c r="H16" s="109"/>
+      <c r="I16" s="109"/>
+      <c r="J16" s="109"/>
+      <c r="K16" s="109"/>
+      <c r="L16" s="109"/>
+      <c r="M16" s="109"/>
+      <c r="N16" s="109"/>
+      <c r="O16" s="109"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="154"/>
+      <c r="B17" s="171"/>
+      <c r="C17" s="100" t="s">
+        <v>365</v>
+      </c>
+      <c r="D17" s="120">
+        <v>1</v>
+      </c>
+      <c r="E17" s="169"/>
+      <c r="F17" s="120"/>
+      <c r="G17" s="109"/>
+      <c r="H17" s="109"/>
+      <c r="I17" s="109"/>
+      <c r="J17" s="109"/>
+      <c r="K17" s="109"/>
+      <c r="L17" s="109"/>
+      <c r="M17" s="109"/>
+      <c r="N17" s="109"/>
+      <c r="O17" s="109"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" s="154"/>
+      <c r="B18" s="172" t="s">
+        <v>366</v>
+      </c>
+      <c r="C18" s="97" t="s">
+        <v>367</v>
+      </c>
+      <c r="D18" s="120">
+        <v>1</v>
+      </c>
+      <c r="E18" s="172" t="s">
+        <v>368</v>
+      </c>
+      <c r="F18" s="120"/>
+      <c r="G18" s="109" t="s">
+        <v>354</v>
+      </c>
+      <c r="H18" s="109"/>
+      <c r="I18" s="109"/>
+      <c r="J18" s="109"/>
+      <c r="K18" s="109"/>
+      <c r="L18" s="109" t="s">
+        <v>369</v>
+      </c>
+      <c r="M18" s="109"/>
+      <c r="N18" s="109"/>
+      <c r="O18" s="109"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" s="154"/>
+      <c r="B19" s="169"/>
+      <c r="C19" s="97" t="s">
+        <v>370</v>
+      </c>
+      <c r="D19" s="120">
+        <v>2</v>
+      </c>
+      <c r="E19" s="171"/>
+      <c r="F19" s="120"/>
+      <c r="G19" s="109" t="s">
+        <v>369</v>
+      </c>
+      <c r="H19" s="109"/>
+      <c r="I19" s="109"/>
+      <c r="J19" s="109"/>
+      <c r="K19" s="109"/>
+      <c r="L19" s="109" t="s">
+        <v>371</v>
+      </c>
+      <c r="M19" s="109"/>
+      <c r="N19" s="109"/>
+      <c r="O19" s="109"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" s="154"/>
+      <c r="B20" s="172" t="s">
+        <v>115</v>
+      </c>
+      <c r="C20" s="103" t="s">
+        <v>116</v>
+      </c>
+      <c r="D20" s="120">
+        <v>1</v>
+      </c>
+      <c r="E20" s="171" t="s">
+        <v>372</v>
+      </c>
+      <c r="F20" s="120"/>
+      <c r="G20" s="109"/>
+      <c r="H20" s="109"/>
+      <c r="I20" s="109"/>
+      <c r="J20" s="109"/>
+      <c r="K20" s="109"/>
+      <c r="L20" s="109"/>
+      <c r="M20" s="109"/>
+      <c r="N20" s="109"/>
+      <c r="O20" s="109"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" s="154"/>
+      <c r="B21" s="171"/>
+      <c r="C21" s="103" t="s">
+        <v>118</v>
+      </c>
+      <c r="D21" s="120">
+        <v>2</v>
+      </c>
+      <c r="E21" s="171"/>
+      <c r="F21" s="120"/>
+      <c r="G21" s="109"/>
+      <c r="H21" s="109"/>
+      <c r="I21" s="109"/>
+      <c r="J21" s="109"/>
+      <c r="K21" s="109"/>
+      <c r="L21" s="109"/>
+      <c r="M21" s="109"/>
+      <c r="N21" s="109"/>
+      <c r="O21" s="109"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" s="154"/>
+      <c r="B22" s="84" t="s">
+        <v>373</v>
+      </c>
+      <c r="C22" s="103" t="s">
+        <v>374</v>
+      </c>
+      <c r="D22" s="120">
+        <v>1</v>
+      </c>
+      <c r="E22" s="169"/>
+      <c r="F22" s="120"/>
+      <c r="G22" s="109"/>
+      <c r="H22" s="109"/>
+      <c r="I22" s="109"/>
+      <c r="J22" s="109"/>
+      <c r="K22" s="109"/>
+      <c r="L22" s="109"/>
+      <c r="M22" s="109"/>
+      <c r="N22" s="109"/>
+      <c r="O22" s="109"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" s="154"/>
+      <c r="B23" s="172" t="s">
+        <v>375</v>
+      </c>
+      <c r="C23" s="97" t="s">
+        <v>376</v>
+      </c>
+      <c r="D23" s="120">
+        <v>3</v>
+      </c>
+      <c r="E23" s="172" t="s">
+        <v>349</v>
+      </c>
+      <c r="F23" s="120"/>
+      <c r="G23" s="109" t="s">
+        <v>377</v>
+      </c>
+      <c r="H23" s="109"/>
+      <c r="I23" s="109"/>
+      <c r="J23" s="109"/>
+      <c r="K23" s="109"/>
+      <c r="L23" s="109" t="s">
+        <v>378</v>
+      </c>
+      <c r="M23" s="109"/>
+      <c r="N23" s="109"/>
+      <c r="O23" s="109"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24" s="154"/>
+      <c r="B24" s="171"/>
+      <c r="C24" s="97" t="s">
+        <v>379</v>
+      </c>
+      <c r="D24" s="120">
+        <v>3</v>
+      </c>
+      <c r="E24" s="171"/>
+      <c r="F24" s="120"/>
+      <c r="G24" s="109" t="s">
+        <v>377</v>
+      </c>
+      <c r="H24" s="109"/>
+      <c r="I24" s="109"/>
+      <c r="J24" s="109"/>
+      <c r="K24" s="109"/>
+      <c r="L24" s="109" t="s">
+        <v>378</v>
+      </c>
+      <c r="M24" s="109"/>
+      <c r="N24" s="109"/>
+      <c r="O24" s="109"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25" s="154"/>
+      <c r="B25" s="171"/>
+      <c r="C25" s="97" t="s">
+        <v>311</v>
+      </c>
+      <c r="D25" s="120">
+        <v>3</v>
+      </c>
+      <c r="E25" s="171"/>
+      <c r="F25" s="120"/>
+      <c r="G25" s="109" t="s">
+        <v>377</v>
+      </c>
+      <c r="H25" s="109"/>
+      <c r="I25" s="109"/>
+      <c r="J25" s="109"/>
+      <c r="K25" s="109"/>
+      <c r="L25" s="109" t="s">
+        <v>378</v>
+      </c>
+      <c r="M25" s="109"/>
+      <c r="N25" s="109"/>
+      <c r="O25" s="109"/>
+    </row>
+    <row r="26" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="175"/>
+      <c r="B26" s="173"/>
+      <c r="C26" s="98" t="s">
+        <v>304</v>
+      </c>
+      <c r="D26" s="121">
+        <v>2</v>
+      </c>
+      <c r="E26" s="125" t="s">
+        <v>372</v>
+      </c>
+      <c r="F26" s="121"/>
+      <c r="G26" s="113"/>
+      <c r="H26" s="113"/>
+      <c r="I26" s="113"/>
+      <c r="J26" s="113"/>
+      <c r="K26" s="113"/>
+      <c r="L26" s="113"/>
+      <c r="M26" s="113"/>
+      <c r="N26" s="113"/>
+      <c r="O26" s="113"/>
+    </row>
+    <row r="27" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="153" t="s">
+        <v>380</v>
+      </c>
+      <c r="B27" s="170" t="s">
+        <v>381</v>
+      </c>
+      <c r="C27" s="94" t="s">
+        <v>126</v>
+      </c>
+      <c r="D27" s="124">
+        <v>1</v>
+      </c>
+      <c r="E27" s="170" t="s">
+        <v>349</v>
+      </c>
+      <c r="F27" s="124"/>
+      <c r="G27" s="186" t="s">
+        <v>382</v>
+      </c>
+      <c r="H27" s="186"/>
+      <c r="I27" s="186"/>
+      <c r="J27" s="186"/>
+      <c r="K27" s="186"/>
+      <c r="L27" s="109" t="s">
+        <v>378</v>
+      </c>
+      <c r="M27" s="186"/>
+      <c r="N27" s="186"/>
+      <c r="O27" s="186"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A28" s="154"/>
+      <c r="B28" s="171"/>
+      <c r="C28" s="95" t="s">
+        <v>129</v>
+      </c>
+      <c r="D28" s="120">
+        <v>1</v>
+      </c>
+      <c r="E28" s="169"/>
+      <c r="F28" s="120"/>
+      <c r="G28" s="186" t="s">
+        <v>382</v>
+      </c>
+      <c r="H28" s="114"/>
+      <c r="I28" s="114"/>
+      <c r="J28" s="114"/>
+      <c r="K28" s="114"/>
+      <c r="L28" s="109" t="s">
+        <v>378</v>
+      </c>
+      <c r="M28" s="114"/>
+      <c r="N28" s="114"/>
+      <c r="O28" s="109"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A29" s="154"/>
+      <c r="B29" s="171"/>
+      <c r="C29" s="104" t="s">
+        <v>383</v>
+      </c>
+      <c r="D29" s="120">
+        <v>3</v>
+      </c>
+      <c r="E29" s="172" t="s">
+        <v>372</v>
+      </c>
+      <c r="F29" s="120"/>
+      <c r="G29" s="109"/>
+      <c r="H29" s="109"/>
+      <c r="I29" s="109"/>
+      <c r="J29" s="109"/>
+      <c r="K29" s="109"/>
+      <c r="L29" s="109"/>
+      <c r="M29" s="109"/>
+      <c r="N29" s="109"/>
+      <c r="O29" s="109"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A30" s="154"/>
+      <c r="B30" s="169"/>
+      <c r="C30" s="104" t="s">
+        <v>125</v>
+      </c>
+      <c r="D30" s="120">
+        <v>3</v>
+      </c>
+      <c r="E30" s="169"/>
+      <c r="F30" s="120"/>
+      <c r="G30" s="109"/>
+      <c r="H30" s="109"/>
+      <c r="I30" s="109"/>
+      <c r="J30" s="109"/>
+      <c r="K30" s="109"/>
+      <c r="L30" s="109"/>
+      <c r="M30" s="109"/>
+      <c r="N30" s="109"/>
+      <c r="O30" s="109"/>
+    </row>
+    <row r="31" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="175"/>
+      <c r="B31" s="127" t="s">
+        <v>384</v>
+      </c>
+      <c r="C31" s="105" t="s">
+        <v>385</v>
+      </c>
+      <c r="D31" s="127">
+        <v>2</v>
+      </c>
+      <c r="E31" s="127" t="s">
+        <v>372</v>
+      </c>
+      <c r="F31" s="127"/>
+      <c r="G31" s="112"/>
+      <c r="H31" s="112"/>
+      <c r="I31" s="112"/>
+      <c r="J31" s="112"/>
+      <c r="K31" s="112"/>
+      <c r="L31" s="112"/>
+      <c r="M31" s="112"/>
+      <c r="N31" s="112"/>
+      <c r="O31" s="112"/>
+    </row>
+    <row r="32" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="153" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" s="170" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" s="96" t="s">
+        <v>72</v>
+      </c>
+      <c r="D32" s="122">
+        <v>3</v>
+      </c>
+      <c r="E32" s="170" t="s">
+        <v>349</v>
+      </c>
+      <c r="F32" s="122"/>
+      <c r="G32" s="124" t="s">
+        <v>371</v>
+      </c>
+      <c r="H32" s="114"/>
+      <c r="I32" s="114"/>
+      <c r="J32" s="114"/>
+      <c r="K32" s="114"/>
+      <c r="L32" s="114" t="s">
+        <v>386</v>
+      </c>
+      <c r="M32" s="114"/>
+      <c r="N32" s="114"/>
+      <c r="O32" s="114"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A33" s="154"/>
+      <c r="B33" s="169"/>
+      <c r="C33" s="92" t="s">
+        <v>387</v>
+      </c>
+      <c r="D33" s="120">
+        <v>3</v>
+      </c>
+      <c r="E33" s="169"/>
+      <c r="F33" s="120"/>
+      <c r="G33" s="124" t="s">
+        <v>371</v>
+      </c>
+      <c r="H33" s="114"/>
+      <c r="I33" s="114"/>
+      <c r="J33" s="109"/>
+      <c r="K33" s="109"/>
+      <c r="L33" s="114" t="s">
+        <v>386</v>
+      </c>
+      <c r="M33" s="109"/>
+      <c r="N33" s="109"/>
+      <c r="O33" s="109"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A34" s="154"/>
+      <c r="B34" s="172" t="s">
+        <v>388</v>
+      </c>
+      <c r="C34" s="100" t="s">
+        <v>389</v>
+      </c>
+      <c r="D34" s="120">
+        <v>1</v>
+      </c>
+      <c r="E34" s="172" t="s">
+        <v>319</v>
+      </c>
+      <c r="F34" s="120"/>
+      <c r="G34" s="109"/>
+      <c r="H34" s="109"/>
+      <c r="I34" s="109"/>
+      <c r="J34" s="109"/>
+      <c r="K34" s="109"/>
+      <c r="L34" s="109"/>
+      <c r="M34" s="109"/>
+      <c r="N34" s="109"/>
+      <c r="O34" s="109"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A35" s="154"/>
+      <c r="B35" s="171"/>
+      <c r="C35" s="100" t="s">
+        <v>390</v>
+      </c>
+      <c r="D35" s="120">
+        <v>1</v>
+      </c>
+      <c r="E35" s="171"/>
+      <c r="F35" s="120"/>
+      <c r="G35" s="109"/>
+      <c r="H35" s="109"/>
+      <c r="I35" s="109"/>
+      <c r="J35" s="109"/>
+      <c r="K35" s="109"/>
+      <c r="L35" s="109"/>
+      <c r="M35" s="109"/>
+      <c r="N35" s="109"/>
+      <c r="O35" s="109"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A36" s="154"/>
+      <c r="B36" s="169"/>
+      <c r="C36" s="100" t="s">
+        <v>391</v>
+      </c>
+      <c r="D36" s="120">
+        <v>1</v>
+      </c>
+      <c r="E36" s="169"/>
+      <c r="F36" s="120"/>
+      <c r="G36" s="109"/>
+      <c r="H36" s="109"/>
+      <c r="I36" s="109"/>
+      <c r="J36" s="109"/>
+      <c r="K36" s="109"/>
+      <c r="L36" s="109"/>
+      <c r="M36" s="109"/>
+      <c r="N36" s="109"/>
+      <c r="O36" s="109"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A37" s="154"/>
+      <c r="B37" s="172" t="s">
+        <v>392</v>
+      </c>
+      <c r="C37" s="103" t="s">
+        <v>393</v>
+      </c>
+      <c r="D37" s="120">
+        <v>2</v>
+      </c>
+      <c r="E37" s="172" t="s">
+        <v>372</v>
+      </c>
+      <c r="F37" s="120"/>
+      <c r="G37" s="109"/>
+      <c r="H37" s="109"/>
+      <c r="I37" s="109"/>
+      <c r="J37" s="109"/>
+      <c r="K37" s="109"/>
+      <c r="L37" s="109"/>
+      <c r="M37" s="109"/>
+      <c r="N37" s="109"/>
+      <c r="O37" s="109"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A38" s="154"/>
+      <c r="B38" s="169"/>
+      <c r="C38" s="103" t="s">
+        <v>394</v>
+      </c>
+      <c r="D38" s="120">
+        <v>3</v>
+      </c>
+      <c r="E38" s="169"/>
+      <c r="F38" s="120"/>
+      <c r="G38" s="109"/>
+      <c r="H38" s="109"/>
+      <c r="I38" s="109"/>
+      <c r="J38" s="109"/>
+      <c r="K38" s="109"/>
+      <c r="L38" s="109"/>
+      <c r="M38" s="109"/>
+      <c r="N38" s="109"/>
+      <c r="O38" s="109"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A39" s="154"/>
+      <c r="B39" s="172" t="s">
+        <v>395</v>
+      </c>
+      <c r="C39" s="98" t="s">
+        <v>396</v>
+      </c>
+      <c r="D39" s="121">
+        <v>2</v>
+      </c>
+      <c r="E39" s="172" t="s">
+        <v>372</v>
+      </c>
+      <c r="F39" s="121"/>
+      <c r="G39" s="113"/>
+      <c r="H39" s="113"/>
+      <c r="I39" s="113"/>
+      <c r="J39" s="113"/>
+      <c r="K39" s="113"/>
+      <c r="L39" s="113"/>
+      <c r="M39" s="113"/>
+      <c r="N39" s="113"/>
+      <c r="O39" s="113"/>
+    </row>
+    <row r="40" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="175"/>
+      <c r="B40" s="173"/>
+      <c r="C40" s="98" t="s">
+        <v>397</v>
+      </c>
+      <c r="D40" s="121">
+        <v>3</v>
+      </c>
+      <c r="E40" s="173"/>
+      <c r="F40" s="121"/>
+      <c r="G40" s="113"/>
+      <c r="H40" s="113"/>
+      <c r="I40" s="113"/>
+      <c r="J40" s="113"/>
+      <c r="K40" s="113"/>
+      <c r="L40" s="113"/>
+      <c r="M40" s="113"/>
+      <c r="N40" s="113"/>
+      <c r="O40" s="113"/>
+    </row>
+    <row r="41" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="70" t="s">
+        <v>68</v>
+      </c>
+      <c r="B41" s="71" t="s">
+        <v>69</v>
+      </c>
+      <c r="C41" s="106" t="s">
+        <v>69</v>
+      </c>
+      <c r="D41" s="52">
+        <v>1</v>
+      </c>
+      <c r="E41" s="52" t="s">
+        <v>349</v>
+      </c>
+      <c r="F41" s="52"/>
+      <c r="G41" s="187" t="s">
+        <v>398</v>
+      </c>
+      <c r="H41" s="187"/>
+      <c r="I41" s="187"/>
+      <c r="J41" s="187"/>
+      <c r="K41" s="187"/>
+      <c r="L41" s="187" t="s">
+        <v>399</v>
+      </c>
+      <c r="M41" s="187"/>
+      <c r="N41" s="187"/>
+      <c r="O41" s="187"/>
+      <c r="P41" s="48"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A42" s="46"/>
+      <c r="B42" s="46"/>
+      <c r="C42" s="46"/>
+      <c r="D42" s="46"/>
+      <c r="E42" s="46"/>
+      <c r="F42" s="46"/>
+      <c r="G42" s="46"/>
+      <c r="H42" s="46"/>
+      <c r="I42" s="46"/>
+      <c r="J42" s="46"/>
+      <c r="K42" s="46"/>
+      <c r="L42" s="46"/>
+      <c r="M42" s="46"/>
+      <c r="N42" s="46"/>
+      <c r="O42" s="46"/>
+      <c r="P42" s="48"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A43" s="46"/>
+      <c r="B43" s="46"/>
+      <c r="C43" s="46"/>
+      <c r="D43" s="46"/>
+      <c r="E43" s="46"/>
+      <c r="F43" s="46"/>
+      <c r="G43" s="46"/>
+      <c r="H43" s="46"/>
+      <c r="I43" s="46"/>
+      <c r="J43" s="46"/>
+      <c r="K43" s="46"/>
+      <c r="L43" s="46"/>
+      <c r="M43" s="46"/>
+      <c r="N43" s="46"/>
+      <c r="O43" s="46"/>
+      <c r="P43" s="48"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A44" s="46"/>
+      <c r="B44" s="46"/>
+      <c r="C44" s="46"/>
+      <c r="D44" s="46"/>
+      <c r="E44" s="46"/>
+      <c r="F44" s="46"/>
+      <c r="G44" s="46"/>
+      <c r="H44" s="46"/>
+      <c r="I44" s="46"/>
+      <c r="J44" s="46"/>
+      <c r="K44" s="46"/>
+      <c r="L44" s="46"/>
+      <c r="M44" s="46"/>
+      <c r="N44" s="46"/>
+      <c r="O44" s="46"/>
+      <c r="P44" s="48"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A45" s="46"/>
+      <c r="B45" s="46"/>
+      <c r="C45" s="46"/>
+      <c r="D45" s="46"/>
+      <c r="E45" s="46"/>
+      <c r="F45" s="46"/>
+      <c r="G45" s="46"/>
+      <c r="H45" s="46"/>
+      <c r="I45" s="46"/>
+      <c r="J45" s="46"/>
+      <c r="K45" s="46"/>
+      <c r="L45" s="46"/>
+      <c r="M45" s="46"/>
+      <c r="N45" s="46"/>
+      <c r="O45" s="46"/>
+      <c r="P45" s="48"/>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A46" s="46"/>
+      <c r="B46" s="46"/>
+      <c r="C46" s="46"/>
+      <c r="D46" s="46"/>
+      <c r="E46" s="46"/>
+      <c r="F46" s="46"/>
+      <c r="G46" s="46"/>
+      <c r="H46" s="46"/>
+      <c r="I46" s="46"/>
+      <c r="J46" s="46"/>
+      <c r="K46" s="46"/>
+      <c r="L46" s="46"/>
+      <c r="M46" s="46"/>
+      <c r="N46" s="46"/>
+      <c r="O46" s="46"/>
+      <c r="P46" s="48"/>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A47" s="46"/>
+      <c r="B47" s="46"/>
+      <c r="C47" s="46"/>
+      <c r="D47" s="46"/>
+      <c r="E47" s="46"/>
+      <c r="F47" s="46"/>
+      <c r="G47" s="46"/>
+      <c r="H47" s="46"/>
+      <c r="I47" s="46"/>
+      <c r="J47" s="46"/>
+      <c r="K47" s="46"/>
+      <c r="L47" s="46"/>
+      <c r="M47" s="46"/>
+      <c r="N47" s="46"/>
+      <c r="O47" s="46"/>
+      <c r="P47" s="48"/>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A48" s="46"/>
+      <c r="B48" s="46"/>
+      <c r="C48" s="46"/>
+      <c r="D48" s="46"/>
+      <c r="E48" s="46"/>
+      <c r="F48" s="46"/>
+      <c r="G48" s="46"/>
+      <c r="H48" s="46"/>
+      <c r="I48" s="46"/>
+      <c r="J48" s="46"/>
+      <c r="K48" s="46"/>
+      <c r="L48" s="46"/>
+      <c r="M48" s="46"/>
+      <c r="N48" s="46"/>
+      <c r="O48" s="46"/>
+      <c r="P48" s="48"/>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A49" s="46"/>
+      <c r="B49" s="46"/>
+      <c r="C49" s="46"/>
+      <c r="D49" s="46"/>
+      <c r="E49" s="46"/>
+      <c r="F49" s="46"/>
+      <c r="G49" s="46"/>
+      <c r="H49" s="46"/>
+      <c r="I49" s="46"/>
+      <c r="J49" s="46"/>
+      <c r="K49" s="46"/>
+      <c r="L49" s="46"/>
+      <c r="M49" s="46"/>
+      <c r="N49" s="46"/>
+      <c r="O49" s="46"/>
+      <c r="P49" s="48"/>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A50" s="46"/>
+      <c r="B50" s="46"/>
+      <c r="C50" s="46"/>
+      <c r="D50" s="46"/>
+      <c r="E50" s="46"/>
+      <c r="F50" s="46"/>
+      <c r="G50" s="46"/>
+      <c r="H50" s="46"/>
+      <c r="I50" s="46"/>
+      <c r="J50" s="46"/>
+      <c r="K50" s="46"/>
+      <c r="L50" s="46"/>
+      <c r="M50" s="46"/>
+      <c r="N50" s="46"/>
+      <c r="O50" s="46"/>
+      <c r="P50" s="48"/>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A51" s="46"/>
+      <c r="B51" s="46"/>
+      <c r="C51" s="46"/>
+      <c r="D51" s="46"/>
+      <c r="E51" s="46"/>
+      <c r="F51" s="46"/>
+      <c r="G51" s="46"/>
+      <c r="H51" s="46"/>
+      <c r="I51" s="46"/>
+      <c r="J51" s="46"/>
+      <c r="K51" s="46"/>
+      <c r="L51" s="46"/>
+      <c r="M51" s="46"/>
+      <c r="N51" s="46"/>
+      <c r="O51" s="46"/>
+      <c r="P51" s="48"/>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A52" s="46"/>
+      <c r="B52" s="46"/>
+      <c r="C52" s="46"/>
+      <c r="D52" s="46"/>
+      <c r="E52" s="46"/>
+      <c r="F52" s="46"/>
+      <c r="G52" s="46"/>
+      <c r="H52" s="46"/>
+      <c r="I52" s="46"/>
+      <c r="J52" s="46"/>
+      <c r="K52" s="46"/>
+      <c r="L52" s="46"/>
+      <c r="M52" s="46"/>
+      <c r="N52" s="46"/>
+      <c r="O52" s="46"/>
+      <c r="P52" s="48"/>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A53" s="46"/>
+      <c r="B53" s="46"/>
+      <c r="C53" s="46"/>
+      <c r="D53" s="46"/>
+      <c r="E53" s="46"/>
+      <c r="F53" s="46"/>
+      <c r="G53" s="46"/>
+      <c r="H53" s="46"/>
+      <c r="I53" s="46"/>
+      <c r="J53" s="46"/>
+      <c r="K53" s="46"/>
+      <c r="L53" s="46"/>
+      <c r="M53" s="46"/>
+      <c r="N53" s="46"/>
+      <c r="O53" s="46"/>
+      <c r="P53" s="48"/>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A54" s="46"/>
+      <c r="B54" s="46"/>
+      <c r="C54" s="46"/>
+      <c r="D54" s="46"/>
+      <c r="E54" s="46"/>
+      <c r="F54" s="46"/>
+      <c r="G54" s="46"/>
+      <c r="H54" s="46"/>
+      <c r="I54" s="46"/>
+      <c r="J54" s="46"/>
+      <c r="K54" s="46"/>
+      <c r="L54" s="46"/>
+      <c r="M54" s="46"/>
+      <c r="N54" s="46"/>
+      <c r="O54" s="46"/>
+      <c r="P54" s="48"/>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A55" s="46"/>
+      <c r="B55" s="46"/>
+      <c r="C55" s="46"/>
+      <c r="D55" s="46"/>
+      <c r="E55" s="46"/>
+      <c r="F55" s="46"/>
+      <c r="G55" s="46"/>
+      <c r="H55" s="46"/>
+      <c r="I55" s="46"/>
+      <c r="J55" s="46"/>
+      <c r="K55" s="46"/>
+      <c r="L55" s="46"/>
+      <c r="M55" s="46"/>
+      <c r="N55" s="46"/>
+      <c r="O55" s="46"/>
+      <c r="P55" s="48"/>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A56" s="48"/>
+      <c r="B56" s="48"/>
+      <c r="C56" s="48"/>
+      <c r="D56" s="110"/>
+      <c r="E56" s="110"/>
+      <c r="F56" s="110"/>
+      <c r="G56" s="110"/>
+      <c r="H56" s="110"/>
+      <c r="I56" s="110"/>
+      <c r="J56" s="110"/>
+      <c r="K56" s="110"/>
+      <c r="L56" s="110"/>
+      <c r="M56" s="110"/>
+      <c r="N56" s="110"/>
+      <c r="O56" s="110"/>
+      <c r="P56" s="48"/>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A57" s="48"/>
+      <c r="B57" s="48"/>
+      <c r="C57" s="48"/>
+      <c r="D57" s="110"/>
+      <c r="E57" s="110"/>
+      <c r="F57" s="110"/>
+      <c r="G57" s="110"/>
+      <c r="H57" s="110"/>
+      <c r="I57" s="110"/>
+      <c r="J57" s="110"/>
+      <c r="K57" s="110"/>
+      <c r="L57" s="110"/>
+      <c r="M57" s="110"/>
+      <c r="N57" s="110"/>
+      <c r="O57" s="110"/>
+      <c r="P57" s="48"/>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A58" s="48"/>
+      <c r="B58" s="48"/>
+      <c r="C58" s="48"/>
+      <c r="D58" s="110"/>
+      <c r="E58" s="110"/>
+      <c r="F58" s="110"/>
+      <c r="G58" s="110"/>
+      <c r="H58" s="110"/>
+      <c r="I58" s="110"/>
+      <c r="J58" s="110"/>
+      <c r="K58" s="110"/>
+      <c r="L58" s="110"/>
+      <c r="M58" s="110"/>
+      <c r="N58" s="110"/>
+      <c r="O58" s="110"/>
+      <c r="P58" s="48"/>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A59" s="48"/>
+      <c r="B59" s="48"/>
+      <c r="C59" s="48"/>
+      <c r="D59" s="110"/>
+      <c r="E59" s="110"/>
+      <c r="F59" s="110"/>
+      <c r="G59" s="110"/>
+      <c r="H59" s="110"/>
+      <c r="I59" s="110"/>
+      <c r="J59" s="110"/>
+      <c r="K59" s="110"/>
+      <c r="L59" s="110"/>
+      <c r="M59" s="110"/>
+      <c r="N59" s="110"/>
+      <c r="O59" s="110"/>
+      <c r="P59" s="48"/>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A60" s="48"/>
+      <c r="B60" s="48"/>
+      <c r="C60" s="48"/>
+      <c r="D60" s="110"/>
+      <c r="E60" s="110"/>
+      <c r="F60" s="110"/>
+      <c r="G60" s="110"/>
+      <c r="H60" s="110"/>
+      <c r="I60" s="110"/>
+      <c r="J60" s="110"/>
+      <c r="K60" s="110"/>
+      <c r="L60" s="110"/>
+      <c r="M60" s="110"/>
+      <c r="N60" s="110"/>
+      <c r="O60" s="110"/>
+      <c r="P60" s="48"/>
+    </row>
+  </sheetData>
+  <mergeCells count="39">
     <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="A32:A40"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="E34:E36"/>
+    <mergeCell ref="A11:A26"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="A5:A10"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="E5:E10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.375" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="3" max="3" width="7" customWidth="1"/>
+    <col min="4" max="4" width="11.25" customWidth="1"/>
+    <col min="5" max="5" width="5.375" customWidth="1"/>
+    <col min="6" max="6" width="5.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="164"/>
+      <c r="B1" s="165"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
+      <c r="F1" s="166"/>
+    </row>
+    <row r="2" spans="1:6" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>400</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="155"/>
+      <c r="B3" s="156"/>
+      <c r="C3" s="156"/>
+      <c r="D3" s="156"/>
+      <c r="E3" s="156"/>
+      <c r="F3" s="157"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="168" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="78" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="120">
+        <v>1</v>
+      </c>
+      <c r="D4" s="120" t="s">
+        <v>314</v>
+      </c>
+      <c r="E4" s="33"/>
+      <c r="F4" s="34"/>
+    </row>
+    <row r="5" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="175"/>
+      <c r="B5" s="79" t="s">
+        <v>287</v>
+      </c>
+      <c r="C5" s="127">
+        <v>1</v>
+      </c>
+      <c r="D5" s="127" t="s">
+        <v>401</v>
+      </c>
+      <c r="E5" s="35"/>
+      <c r="F5" s="36"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="153" t="s">
+        <v>402</v>
+      </c>
+      <c r="B6" s="81" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="124">
+        <v>1</v>
+      </c>
+      <c r="D6" s="124" t="s">
+        <v>404</v>
+      </c>
+      <c r="E6" s="31"/>
+      <c r="F6" s="32"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="154"/>
+      <c r="B7" s="85" t="s">
+        <v>405</v>
+      </c>
+      <c r="C7" s="120">
+        <v>1</v>
+      </c>
+      <c r="D7" s="120" t="s">
+        <v>403</v>
+      </c>
+      <c r="E7" s="33"/>
+      <c r="F7" s="34"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="154"/>
+      <c r="B8" s="83" t="s">
+        <v>291</v>
+      </c>
+      <c r="C8" s="120">
+        <v>1</v>
+      </c>
+      <c r="D8" s="120" t="s">
+        <v>406</v>
+      </c>
+      <c r="E8" s="33"/>
+      <c r="F8" s="34"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="154"/>
+      <c r="B9" s="78" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9" s="120">
+        <v>1</v>
+      </c>
+      <c r="D9" s="120" t="s">
+        <v>407</v>
+      </c>
+      <c r="E9" s="33"/>
+      <c r="F9" s="34"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="154"/>
+      <c r="B10" s="83" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="120">
+        <v>1</v>
+      </c>
+      <c r="D10" s="120" t="s">
+        <v>407</v>
+      </c>
+      <c r="E10" s="33"/>
+      <c r="F10" s="34"/>
+    </row>
+    <row r="11" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="175"/>
+      <c r="B11" s="85" t="s">
+        <v>408</v>
+      </c>
+      <c r="C11" s="120">
+        <v>2</v>
+      </c>
+      <c r="D11" s="120" t="s">
+        <v>409</v>
+      </c>
+      <c r="E11" s="33"/>
+      <c r="F11" s="34"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="153" t="s">
+        <v>410</v>
+      </c>
+      <c r="B12" s="77" t="s">
+        <v>411</v>
+      </c>
+      <c r="C12" s="124">
+        <v>3</v>
+      </c>
+      <c r="D12" s="124" t="s">
+        <v>409</v>
+      </c>
+      <c r="E12" s="31"/>
+      <c r="F12" s="32"/>
+    </row>
+    <row r="13" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="175"/>
+      <c r="B13" s="69" t="s">
+        <v>139</v>
+      </c>
+      <c r="C13" s="127">
+        <v>2</v>
+      </c>
+      <c r="D13" s="127" t="s">
+        <v>407</v>
+      </c>
+      <c r="E13" s="35"/>
+      <c r="F13" s="36"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="153" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="84" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="122">
+        <v>3</v>
+      </c>
+      <c r="D14" s="122" t="s">
+        <v>314</v>
+      </c>
+      <c r="E14" s="55"/>
+      <c r="F14" s="56"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="154"/>
+      <c r="B15" s="84" t="s">
+        <v>297</v>
+      </c>
+      <c r="C15" s="120">
+        <v>2</v>
+      </c>
+      <c r="D15" s="120" t="s">
+        <v>404</v>
+      </c>
+      <c r="E15" s="33"/>
+      <c r="F15" s="34"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="154"/>
+      <c r="B16" s="78" t="s">
+        <v>299</v>
+      </c>
+      <c r="C16" s="120">
+        <v>3</v>
+      </c>
+      <c r="D16" s="120" t="s">
+        <v>412</v>
+      </c>
+      <c r="E16" s="33"/>
+      <c r="F16" s="34"/>
+    </row>
+    <row r="17" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="175"/>
+      <c r="B17" s="89" t="s">
+        <v>413</v>
+      </c>
+      <c r="C17" s="121">
+        <v>3</v>
+      </c>
+      <c r="D17" s="121" t="s">
+        <v>412</v>
+      </c>
+      <c r="E17" s="44"/>
+      <c r="F17" s="45"/>
+    </row>
+    <row r="18" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="71" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="52">
+        <v>1</v>
+      </c>
+      <c r="D18" s="52" t="s">
+        <v>414</v>
+      </c>
+      <c r="E18" s="53"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="48"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="46"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="48"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="46"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="48"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="46"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="48"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="46"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="48"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="46"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="48"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="46"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="48"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="46"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="48"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="46"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="48"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="46"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="48"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="46"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="48"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="46"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="48"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="46"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="48"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="46"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="48"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="46"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="48"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="48"/>
+      <c r="B33" s="48"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="48"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="48"/>
+      <c r="G33" s="48"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="48"/>
+      <c r="B34" s="48"/>
+      <c r="C34" s="48"/>
+      <c r="D34" s="48"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="48"/>
+      <c r="G34" s="48"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="48"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="48"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="48"/>
+      <c r="B36" s="48"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="48"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="48"/>
+      <c r="B37" s="48"/>
+      <c r="C37" s="48"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="48"/>
+      <c r="G37" s="48"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
